--- a/news_data/2018_04.xlsx
+++ b/news_data/2018_04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,12 +22,72 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>제주도관광협회 인사</t>
+  </si>
+  <si>
+    <t>제주도, 중국 방한관광 재개 대비 업계 간담회 개최</t>
+  </si>
+  <si>
+    <t>"제주도 우수관광사업체 신청하세요"</t>
+  </si>
+  <si>
+    <t>제주도, 생태관광 사업대상 9개 단체 선정</t>
+  </si>
+  <si>
+    <t>제주도, '관광진흥계획' 수립 용역 추진</t>
+  </si>
+  <si>
+    <t>중국의 제주도 '하이난(海南)'에 한국인 등 관광비자 면제</t>
+  </si>
+  <si>
+    <t>신세계 '제주소주', 제주도 관광객 타깃 '푸른밤 미니어쳐 선물세트' 선봬</t>
+  </si>
+  <si>
+    <t>제주도관광협회 등반동호회, 동광 4.3길 걷기 행사</t>
+  </si>
+  <si>
+    <t>[서해성의 박학다설] 잠들지 못하는 섬, 제주도(3) : ‘관광 총살’을 아시나...</t>
+  </si>
+  <si>
+    <t>제주도 서귀포서 열기구 추락…韓 관광객 탑승자 1명 중상·11명 경상</t>
+  </si>
+  <si>
+    <t>제주도에서 관광용 열기구가 추락했다</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 1~3월 베스트 관광인 선정</t>
+  </si>
+  <si>
+    <t>제주도, 하노이 관광시장 박람회서 관광·문화 소개</t>
+  </si>
+  <si>
+    <t>제주도, 61개소 관광개발사업투자진흥지구...지역경제 지속성장 견인</t>
+  </si>
+  <si>
+    <t>제주도서 불법관광알선 일당 적발</t>
+  </si>
+  <si>
+    <t>'사드 여파' 작년 제주도 직영 관광지 첫 적자</t>
+  </si>
+  <si>
+    <t>제주도관광협회 골프동호회, 4월 골프대회 개최</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 선도학교 선정 학교관광교육 본격 운영</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 학교관광교육 운영 '시동'</t>
+  </si>
+  <si>
     <t>제주도, 해외 관광객 유치 다변화 다각화 추진</t>
   </si>
   <si>
     <t>제주도 놀러 간 관광객들 눈물 흘리게 만든 돌무덤 옆 '짱구 흰둥이 인형'</t>
   </si>
   <si>
+    <t>[힐링페어 2018] 제주특별자치도, 제주도만의 특별한 관광 사업 '웰니스' 소개...</t>
+  </si>
+  <si>
     <t>'제주 4.3 사건' 이효리, 영화 지슬 언급하며 "제주도, 관광지 아닌 아픔 있는...</t>
   </si>
   <si>
@@ -52,31 +112,88 @@
     <t>'모란봉 클럽' 탈북민들의 틈새 시장 공략법 '공개', 북한 군대에서 한국 드라...</t>
   </si>
   <si>
-    <t>제주도, 해외 관광객 유치 다변화 다각화 추진 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 [급등주]에이디테크놀로지 주가 상승, 반도체 대전서 ADP 로드맵 선보인다 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 [급등주] 일진홀딩스 상승, 롯데케미칼의 일진머티리얼즈 인수 영향 [급등주] SK네트웍스우 상승, 자사주 취득 공시 영향받나 [급등주]오픈엣지테크놀로지 주가, 상장 후 부진 만회하나 '22% 급등' [급등주] KR모터스 상승, 서울시 대기질 개선 대책 발표 [급등주]라닉스 주가 29% 상한가, 자율주행 관련주 각광 [특징주] 국전약품 주가 하락 '샤페론 수혜 끝났나' 2022-10-04 10:14 (화) [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 삼척시 인근서 산불발생...헬기 3대 투입 진화 대구시 동구 율암동 섬유공장에서 화재발생 인천 가정동 빌라서 불…"40대 남성 중상" 횡성군 비닐하우스서 화재…4명 부상 강원 양양 산불발생... 36분만에 진화완료 군산해경, 해상에 추락한 낚시객 등 구조 해경, 야간 갯바위 고립 낚시객 구조 원주서 택시·승용차 충돌...2명 부상 [속보] 경기 버스 노사 협상 타결 파업 철회...버스 정상운행 춘천 석사동 사무실 화재…인명피해 없어 수원 장안동 주택서 불…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 해외 관광객 유치 다변화 다각화 추진 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, 해외 관광객 유치 다변화 다각화 추진 기자명 고병수 기자 입력 2018.04.01 16:52 수정 2018.04.01 21:15 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 베트남 VITM 박람회 참가 및 베트남 여성 박물관과 제주홍보 협의 (제주=국제뉴스) 고병수 기자 = 제주특별자치도는 지난 3월 29일부터 4월 1일까지 베트남 하노이 I.C.E.(Hanoi International Center for Exhibition)에서 개최된 VITM Hanoi 2018(Vietnam International Travel Mart Hanoi 2018)에 참가해 베트남 관광 업계와 현지 소비자 대상으로 제주의 관광 매력에 대한 홍보활동을 진행했다고 밝혔다.VITM Hanoi 2018은 하노이시 관광국, 베트남여행업협회 주최하고 베트남문화체육관광부, 하노이시인민위원회, 베트남관광협회 등이 후원했다.이번 박람회 참가는 제주특별자치도와 제주관광협회, 도내 8개 관광사업체(여행사 1, 호텔 1, 관광지업 4, 해양레저업 2)다.현학수 관광정책과장은 3월 29일 응웬티빅반(Nguyen Thi Bich Van) 베트남 여성 박물관장과의 면담을 통해 “베트남 여성들처럼 제주의 여성들도 해녀문화 등 제주도의 발전에 큰 역할을 담당하고 있다”고 강조했다. 또한 “베트남 여성 박물관을 통해 베트남인들과 여성 박물관을 찾는 외국 관광객들에게 제주를 알릴 수 있는 기회가 제공되기를 희망한다”고 밝혔다. 이에 응웬티빅반 베트남 여성 박물관장은 “베트남과 제주 간의 상호 교류가 활발하게 진행되기를 희망하면서 여성 박물관을 활용한 제주의 관광 문화를 알릴 수 있는 전시와 공연활동 등에 대하여 세부적인 논의를 해 나가는데 적극 협력할 것”을 약속했다.관계자는 “이번 박람회를 찾은 베트남 하노이 고객들이 제주를 비롯한 해외 관광에 많은 관심을 표명했고 경제성장과 더불어 미래 해외 관광수요가 지속적으로 증가될 것”이라 전망하며 “시장다변화를 주도할 주요 시장으로 지속적인 관광마케팅을 해나가겠다”고 했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 이효리 이상순 임신 소식 언제 '불타오르지 않아' 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 김종민♥신지 결혼설, 축하 꽃다발 선물 누가? '특종세상' 배우 김태형, 10년 전 아들 잃고 충격...나이·근황은? 김종민♥신지 결혼설 해명 후 물오른 미모 '소멸될 듯' 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 주요기사 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 요양병원 접촉면회 4일부터 가능 '입소자 외박·외출도' 최신뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 포토뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 인기뉴스 1 [단독] 세종시, 태권도사범이 여중생 상대 '좋아한다'며 수차례 성관계 2 안철수, 당 대표가 돼야 하는 이유? 3 유럽 증시, 개장 직후 폭락···FTSE 100 1.6%· DAX 1.3% '뚝' 4 사천시 '항공우주청' 조기 설립 광폭행보 5 안양 호계동 아파트 공사장서 불…인명피해 없어 6 [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 7 러시아 우크라이나 전쟁···美 "유럽 주둔 미군 우발 상황에 대비" 8 우크라이나 러시아 전쟁, 파괴된 탱크 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도 놀러 간 관광객들 눈물 흘리게 만든 돌무덤 옆 ‘짱구 흰둥이 인형’ - 인사이트 Insight 정치 경제 핫이슈 엔터 라이프 문화·스포츠 사람들 산업 헬스 증권·금융 20℃ 서울 17℃ 인천 20℃ 춘천 17℃ 강릉 19℃ 수원 18℃ 청주 19℃ 대전 17℃ 전주 19℃ 광주 23℃ 대구 24℃ 부산 20℃ 제주 제주도 놀러 간 관광객들 눈물 흘리게 만든 돌무덤 옆 '짱구 흰둥이 인형' 각종 과자와 인형이 놓인 제주도의 작은 돌무덤에 얽힌 사연이 보는 이의 눈시울을 자극하고 있다. 황효정 기자 2018-04-04 15:36:13 글자크기 설정 가 가 가 가 가 공유 카카오톡 페이스북 트위터 카카오스토리 밴드 핀터레스트 URL 복사 메일 Facebook 'TheBlueHouseKR'[인사이트] 황효정 기자 = 북촌리. 제주도의 작은 해변 마을이다. 이곳에 한 돌밭이 있다. 그 위로 작고 앙증맞은 인형이 있다. 귀엽기만 한 인형인데, 추억을 쌓으러 제주도에 놀러 왔던 관광객들은 눈물을 머금었다. 왜일까. 지난 3일 청와대는 공식 페이스북 페이지에 사진 몇 장을 게재했다. 풀숲 사이로 아무렇지도 않게 널려있는 작은 돌무더기를 포착한 사진이었다.Facebook 'TheBlueHouseKR'아름다운 제주 봄 풍경을 뒤로하고 포착된 돌무더기 위로는 인기 만화 '짱구는 못 말려'의 강아지 캐릭터 흰둥이 인형 등과 꽃, 과자, 장난감 등이 놓인 모습이다.검은 돌에 둘러싸인 이 작은 터는 정확히 70년 전 발생한 제주 4·3 사건의 역사 현장 중에서도 가장 마음 아픈 곳으로 불리는 '너븐숭이 애기무덤'이다. 너븐숭이는 제주말로 넓은 돌밭을 뜻한다. 이념 갈등이 발단이 된 무력충돌 과정에서 무고한 제주 주민들이 학살당한 사건인 제주 4·3 사건은 확인된 희생자 수만 1만 5천여 명, 유족들만 5만명이 넘는다. 이때 목숨을 잃은 사람은 비단 성인들뿐만이 아니었다. 무장단체의 사격으로 젖먹이를 안고 있던 여인들, 그 품에 안겨 있던 젖먹이들이 목숨을 잃었다.Facebook 'TheBlueHouseKR'사진 속 애기무덤은 당시 영문도 모른 채 무서워하며 죽어갔던 어린 생명들이 임시로 묻힌 돌밭인 것. 70년 전 희생당한 아이들이 있는 이곳에 70년 뒤 오늘날의 어른들이 다녀갔다. 심심하지 말라고 장난감과 과자를 놓고 갔다. 그 위로 4월의 햇살이 빛났다. 4월은 제주도에 있어 푸른 바다와 검은 돌담 사이에 노란 유채꽃이 피는 계절이다. 자신만의 꽃을 미처 피우기도 전 스러진 아기들을 더욱 기리고 또 기억해야 한다고, 흔하고 아름다운 제주의 봄날이 우리에게 말하고 있다. Facebook 'TheBlueHouseKR'황효정 기자 hyojung@insight.co.kr 황효정 기자 · webmaster@insight.co.kr 베스트클릭 방송·드라마 “내 딸은 못 준다”...김지민 없는 사이 쓰레기장으로 변한 김준호의 충격적인 집상태 방송·드라마 임신 후 ‘27kg’ 찐 소이현에게 남편 인교진이 매일 해준 말...모든 여자를 울렸다 방송·드라마 6년 만난 전남친은 모르는데 2일 만난 썸남은 기억하는 ‘환연2’ 여자 출연자의 식성 사회 오늘(1일)은 20대 청춘을 바쳐 나라 지킨 군인들을 위한 '국군의날' 입니다 국제 스몰웨딩 한다며 ‘코스트코’ 음식 100만원 어치로 피로연 뷔페 준비한 커플 사회 윤석열 대통령, ‘마약과의 전쟁’ 선포하고 대규모 소탕 작업 벌인다 스타 돈스파이크, 2010년에도 마약으로 ‘징역’ 1년형...“직접 대량 구매해 주변에 무료나눔” 사회 검사가 자기 ‘성관계 영상’ 봤다며 억울해한 이은해...검찰은 이렇게 반응했다 연예 최진실 14주기 맞아 묘소 찾은 최준희...오빠 최환희에 갑자기 ‘일침’ 날렸다 스포츠 부진 빠진 FC서울 선수들에 '욕설' 날리는 팬들과 충돌한 기성용..."개XX까지 나왔다" 연예 최진실 14주기 맞아 묘소 찾은 최환희...“준희는 교통사고로 입원” 방송·드라마 남녀 출연자들이 하룻밤 같이 자는 ‘29금’ 연애 리얼리티 나왔다 국제 “히잡 쓰지 않겠다”...시위 참여한 23살 유명 틱톡커, 1시간 만에 총 맞아 결국 사망 비디오 입대 앞두고 전역일 봤다가 눈앞이 캄캄해진 BJ 저라뎃의 찐 반응 (영상) 연예 “E열 3, 4번 누구랑 봤을까요?” 전남친 나오는 영화 ‘공조2’ 관람 인증한 손예진 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 서울특별시 강남구 논현로99길 23, 인사이트빌딩 (주)인사이트컴퍼니 | 사업자번호: 119-86-62226 | 02-6734-2207 | 등록번호: 서울 아 02953 | 등록일자: 2014.01.02 | 발행・편집인: 안길수 | 편집국장: 이유리 인사이트의 모든 콘텐츠(기사·사진)는 저작권법의 보호를 받은 바, 무단 전재, 복사, 배포 등을 금합니다. 이를 어길 시 법적 제재를 받을 수 있습니다. Copyright ⓒ 인사이트, Ltd. All Rights Reserved. Insight 정치 정치일반 사회 청와대 국회·정당 전국 경제 생활경제 소비자 정책 외환 부동산 핫이슈 이슈 과학 국제 환경 사건사고 스토리 동물 엔터 연예 방송·드라마 영화 비디오 스타 라이프 라이프 패션 여행 음식·맛집 쇼핑 연애 건강 문화·스포츠 문화·예술 코믹 책·서평 스포츠 공연·전시 게임 사람들 사람들 인사 동정 부음 산업 기업 CEO IT·전자 자동차 모바일·통신 항공·물류 중기·벤처 헬스 제약 의료 뷰티 증권·금융 증시 금융 보험·카드 베스트클릭 “내 딸은 못 준다”...김지민 없는 사이 쓰레기장으로 변한 김준호의 충격적인 집상태 임신 후 ‘27kg’ 찐 소이현에게 남편 인교진이 매일 해준 말...모든 여자를 울렸다 6년 만난 전남친은 모르는데 2일 만난 썸남은 기억하는 ‘환연2’ 여자 출연자의 식성 오늘(1일)은 20대 청춘을 바쳐 나라 지킨 군인들을 위한 '국군의날' 입니다 스몰웨딩 한다며 ‘코스트코’ 음식 100만원 어치로 피로연 뷔페 준비한 커플 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 Copyright ⓒ 인사이트, Ltd. All Rights Reserved.</t>
-  </si>
-  <si>
-    <t>'제주 4.3 사건' 이효리, 영화 지슬 언급하며 "제주도, 관광지 아닌 아픔 있는 땅" &lt; 종합 &lt; 연예 &lt; 기사본문 - 중부일보 - 경기·인천의 든든한 친구 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 경기·인천 뉴스의 중심 로그인 회원가입 2022-10-04 10:24 (화) 지면서비스 전체메뉴 버튼 경기 가평군 고양시 과천시 광명시 광주시 구리시 군포시 김포시 남양주시 동두천시 부천시 성남시 수원시 시흥시 안산시 안성시 안양시 양주시 양평군 여주시 연천군 오산시 용인시 의왕시 의정부시 이천시 파주시 평택시 포천시 하남시 화성시 지역종합 자치의정 북부종합 인천 정치 의정 경제 사회 선거 계양구 미추홀구 남동구 동구 부평구 서구 연수구 중구 강화군 옹진군 인천종합 사람들 사람들 인사 알림 부고 새얼굴 정치 지방행정 지방의정 선거 대통령실 행정·자치 국회·정당 외교·국방·북한 정치일반 20대 대선 경제 경제종합 건설.부동산 금융.재태크.증권 소비자.유통 일자리&amp;창업 IT.과학 자동차 중소기업 사회 사건.사고 교육 법원·검찰·경찰 노동·복지 생활·환경 날씨정보 사회종합 문화 문화종합 공연.전시 신간 스포츠 야구 축구 농구 배구 골프 종목별경기 스포츠일반 6·1 지방선거 경기도 인천 포토 포토뉴스 만평 꼬투리 그래픽뉴스 테마화보 카드뉴스 다문화뉴스 English(영어) 中国语(Chinese) Tiếng Việt(Vietnamese) Other Languages 다문화人Story 기획취재 라이프 레저·여행 푸드스토리 건강·의학 오피니언 눈여겨 볼만한 개발정보 TV중부 경기도맛집 연중기획 '지방분권' 시대 끝까지 간다 팩트인사이드 지방선거 누가 뛰나 지면보기 모바일보기 뉴스종합 정치 경제 사회 문화 스포츠 국제 지역 경기 사람들 인천 오피니언 라이프 기획취재 포토 검색하기 기사검색 검색 Trend news 1 40만 인파 몰린 소래포구축제…화려한 피날레 2 [오늘 날씨] 전국 흐리고 비…중부지방 강수량 최대 80㎜ 예상 3 김동연 핵심공약 '버스요금 200원 인하' 사실상 좌초 4 안양시 곳곳 들개 출몰...주민들 "아이들 다칠까 불안" 5 [송도굿마켓] 4만명 시민들 '착한나눔' 일상 되찾았다 6 '보이스피싱 신고 거부' 의정부서도 있었다 7 수원 삼일상고 → 내년 '삼일고'로 교명 변경…"학생 맞춤 특성화교육 강화 앞장" 8 인천지역 아파트값 10년 만에 최대 하락…투기과열지구 해제 효과 미미 9 눅눅한 김 바삭하게 만들기 10 치맥에 즐겁고 공연에 흥나고… '3만 운집' 수원통닭거리축제 ISSUE PICK 지역개발 우리동네 집값·땅값은 TV중부 뉴스를 본다 교육이 미래다 교육의 현장속으로 팩트인사이드 오직 사실! 다문화뉴스 우리 곁에 연예 방송 음악 영화 종합 JTBC방송 더보기 본문영역 서울 17℃  구름많음 미세먼지 경기 19℃  구름많음 미세먼지 인천 19℃  구름많음 미세먼지 이전 기사보기 다음 기사보기 '제주 4.3 사건' 이효리, 영화 지슬 언급하며 "제주도, 관광지 아닌 아픔 있는 땅" 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 연예 종합 '제주 4.3 사건' 이효리, 영화 지슬 언급하며 "제주도, 관광지 아닌 아픔 있는 땅" 기자명 정영식 입력 2018.04.03 17:10 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 네이버밴드(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 네이버밴드(으)로 기사보내기 닫기 ▲ 사진=JTBC '효리네 민박' 캡처 가수 이효리가 제주 4.3 사건 추념식에 참석한 가운데 이 사건을 다룬 영화 ‘지슬’을 언급해 주목을 받고 있다.앞서 JTBC '효리네 민박'에 출연한 이효리는 제주 4.3 사건을 다룬 영화 '지슬 - 끝나지 않은 세월2'를 민박객들에게 추천하며 "안 죽으려고 막 동굴에 숨어 살면서 감자를 많이 먹었다더라. 그래서 영화 제목이 '지슬'이다. '지슬'이 '감자'의 제주 방언이다"라고 언급했다.그러면서 이효리는 "제주도를 관광지로만 생각하는 경향이 있긴 하다"라며 "아픔이 있는 땅"이라 표현했다. 제주 4.3 사건은 1948년 4월 3일에 발생한 소요사태 및 1954년 9월 21일까지 제주도에서 발생한 무력충돌과 진압 과정에서 주민들이 희생당한 사건이다. 이효리는 3일 오전 제주시 봉개동 4-3평화공원에서 열린 제70주년 4.3 사건 희생자 추념식에 참석, 추념사를 읽으며 희생자들에 대한 위로를 건넸다.정영식 기자 페이스북 지면신문보기 저작권자 © 중부일보 - 경기·인천의 든든한 친구 무단전재 및 재배포 금지 로그인하면 내지역 뉴스와 원본 지면을 보실 수 있습니다. 회원가입 로그인 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 많이 본 기사 1 40만 인파 몰린 소래포구축제…화려한 피날레 2 [오늘 날씨] 전국 흐리고 비…중부지방 강수량 최대 80㎜ 예상 3 김동연 핵심공약 '버스요금 200원 인하' 사실상 좌초 4 안양시 곳곳 들개 출몰...주민들 "아이들 다칠까 불안" 5 [송도굿마켓] 4만명 시민들 '착한나눔' 일상 되찾았다 PREMIUM로컬프리미엄 고양시 인천동구의회 인천동구 과천시 광명시 안양시 파주시 화성시 안성시 양평군 오산시 의정부시 여주시 안산시 이천시 의왕시 군포시 평택시 구리시 용인시 광주시 눈여겨 볼만한 개발정보 인천 2호선 김포 감정동·걸포북변·시네폴리스 3개역 신설 검토 인천~부천~서울 지하 고속도로 2027년 착공 LH 인천본부, 10월 11일부터 인천영종 A37블록 공공분양 접수 오늘의 헤드라인 김동연 핵심공약 '버스요금 200원 인하' 사실상 좌초 김동연 경기도지사의 역점 교통공약인 ‘시내버스 요금 200원 인하’가 사실상 좌초할 것으로 전망된다.김동연 지사가 준공영제 확대 등을 약속, 버스 노조와 극적 타결을 이뤄내는 등 ... 가짜 석유 판매 적발 10곳 중 2곳은 경기지역 업소 안양시 곳곳 들개 출몰...주민들 "아이들 다칠까 불안" 송도굿마켓 찾은 4만명 시민들 '착한나눔' 일상 되찾았다 로컬 인사이드 경기도 연극단체 기행 성남 지켜온 블혹의 극단 동선 '관객은 나의 힘' 인문기행-경기도의 전통사찰 고양 흥국사, 일제 암흑기때 구국위해 만일동안 염불… 중생엔 피안의 안식 선사 인문기행-경기도의 전통사찰 가을새도 지나칠 수 없는 곳… '화성 봉림사 자태는 그렇게 아름다웠다 하단영역 경기·인천의 든든한 친구 뉴스 지역종합 오피니언 라이프 기획취재 포토 TV중부 매체정보 경기도 수원시 팔달구 권선로 733 (인계동) 중부일보 문의전화 : 031-230-2114 팩스 : 031-233-3010~1 인천본사 : 인천광역시 남동구 구월남로 148 타워플러스 603호 TEL : 032) 437-0081 FAX : 032) 437-0085 중부일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 중부일보 - 경기·인천의 든든한 친구. All rights reserved. mail to webmaster@joongboo.com 위로 전체메뉴 경기 가평군 고양시 과천시 광명시 광주시 구리시 군포시 김포시 남양주시 동두천시 부천시 성남시 수원시 시흥시 안산시 안성시 안양시 양주시 양평군 여주시 연천군 오산시 용인시 의왕시 의정부시 이천시 파주시 평택시 포천시 하남시 화성시 지역종합 자치의정 북부종합 인천 정치 의정 경제 사회 선거 계양구 미추홀구 남동구 동구 부평구 서구 연수구 중구 강화군 옹진군 인천종합 사람들 사람들 인사 알림 부고 새얼굴 정치 지방행정 지방의정 선거 대통령실 행정·자치 국회·정당 외교·국방·북한 정치일반 20대 대선 경제 경제종합 건설.부동산 금융.재태크.증권 소비자.유통 일자리&amp;창업 IT.과학 자동차 중소기업 사회 사건.사고 교육 법원·검찰·경찰 노동·복지 생활·환경 날씨정보 사회종합 문화 문화종합 공연.전시 신간 오늘의운세 별자리운세 스포츠 야구 축구 농구 배구 골프 종목별경기 스포츠일반 6·1 지방선거 경기도 인천 포토 포토뉴스 만평 꼬투리 그래픽뉴스 테마화보 카드뉴스 다문화뉴스 English(영어) 中国语(Chinese) Tiếng Việt(Vietnamese) Other Languages 다문화人Story 기획취재 라이프 레저·여행 푸드스토리 건강·의학 오피니언 눈여겨 볼만한 개발정보 TV중부 경기도맛집 연중기획 '지방분권' 시대 끝까지 간다 팩트인사이드 지방선거 누가 뛰나 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 서울 '내 고향 페스티벌'서 제주관광 홍보 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 서울 '내 고향 페스티벌'서 제주관광 홍보 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회, 서울 '내 고향 페스티벌'서 제주관광 홍보 서한솔 기자 headlinejeju@headlinejeju.co.kr 승인 2018.04.06 13:07 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회는 제주도, 제주시와 함께 6일부터 오는 8일까지 '케이-페스티벌 2018 파이팅 코리아 내 고향 페스티벌'과 '힐링페어 2018'에 참가해 제주관광 홍보관을 운영한다고 밝혔다.'케이-페스티벌 2019 화이팅 코리아 내 고향 페스티벌'과 '힐링페어 2018'은 각각 서울 여의도와 서울 양재 aT센터에서 개최된다.제주도관광협회는 내고향 페스티벌에서 제주국제관광마라톤축제, 제주 레저스포츠 대축제, 탐라문화제, 제주들불축제 등 제주도내 다양한 축제를, 힐링페어에서는 제주글램핑 등 도내 웰니스관광 업체들과 함께 제주의 힐링테마 관광자원을 적극 홍보할 방침이다.앞으로 제주도와 제주도관광협회는 앞으로도 제33회 한국국제관광전 등 대형 관광박람회에 참가해 국내외 개별관광객 유치 확대를 위한 홍보마케팅을 전개할 예정이다.한편 힐링페어에서 사단법인 힐링산업협회는 힐링산업의 발전에 기여한 업적을 기려 김영진 관광협회장에게 공로상을 수여했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 서한솔 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도 서귀포에서 즐기는 소확행! 중문 관광과 흑돼지 맛집 등 알찬여행 코스 &lt; 사회 &lt; 뉴스 &lt; 기사본문 - 부산제일경제 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집:2022-10-04 10:22 (화) 로그인 회원가입 모바일웹 PDF 보기 전체메뉴 버튼 뉴스 경제 산업 정치 사회 기업일반 유통 기업탐방 릴레이인터뷰 건강/의료 연예 스포츠 인사 라이프 자동생성기사 금융/증권 금융동향 머니플러스 증권일반 종목/투자전략 빅데이터 인포스탁데일리 부동산 정책 분양/건설 해양수산 일반 수산물 항만 해운 교육 교육일반 초/중/고/학원 대학 문화 문화일반 전시/공연 마을활동가 기획/연재 칼럼/기고 HOT 스타트업 연재 취재수첩 디지털이야기 사람을 만나다 Zoom in ASEAN 미래경영포럼 해외기획취재 社告/축사 파워피플100 스타기업100 전체기사 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 서귀포에서 즐기는 소확행! 중문 관광과 흑돼지 맛집 등 알찬여행 코스 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 뉴스 사회 제주도 서귀포에서 즐기는 소확행! 중문 관광과 흑돼지 맛집 등 알찬여행 코스 기자명 이수호 기자 승인 2018.04.05 17:28 댓글 0 조회수 : 4625 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 시원하게 내리는 봄비로 인해 봄철 불청객 미세먼지와 황사로부터 조금은 자유로운 요즘, 봄비처럼 반가운 소식인 봄꽃 축제의 시기가 다가왔다. 서울 여의도는 이번주 7일부터 ‘윤중로 벛꽃축제’를 시작하고 10일까지 열리는 ‘진해 군항제’와 13일부터 3일간 열리는 ‘제천 청풍호 벚꽃축제’, 7일부터 이틀간 열리는 경남 하동군의 ‘화개장터 벚꽃축제’ 등 각 지역마다 저마다의 벚꽃 축제를 준비 중이다. 이렇게 우리나라 구석구석 예쁜 꽃들과 아름다운 자연경관으로 가볼만한 곳이 많지만 벚꽃과 유채꽃, 우리나라에서 가장 높은 한라산과 푸른 바다까지, 제주도와 같이 자연종합선물세트를 선사는 곳도 없을 것이다. 특히 제주도 서남쪽에 위치한 ‘중문’은 세계적으로 인정받는 제주도의 대표적인 관광위락단지로 제주의 푸른 바다와 희고 고운 모래의 조화가 인상적인 ‘색달 해수욕장’, 3단으로 쏟아져 내려오는 ‘천제연 폭포’의 장관, ‘지삿개 주상절리’의 해안절벽 절경까지 어느 것 하나 놓칠 수 없는 다채로운 여행코스로 알찬 여행을 완성케 한다, 이렇게 자연이 주는 선물 외에 제주도에 왔으니 흑돼지 맛집에서 즐기는 식사 한 끼도 빠질 수 없다.서귀포 중문 복분자 흑돼지 맛집으로 소문이 자자한 ‘돈가득’은 제주도산 두툼한 흑돼지를 참숯으로 굽는데, 굽기 직전 복분자를 뿌려주어 잡내는 없애고 훈연의 향은 더했다. 주인장이 직접 제주도산 청정재료로 만드는 정갈한 반찬과 든든한 흑돼지 근고기 한 상은 깔끔한 맛과 푸짐함, 합리적인 가격 등 여러 면에서 제주도 여행의 ‘맛있는 추억’으로 남기기에 부족함이 없다.흑돼지가 들어간 소시지와 얼큰한 국물 맛이 일품인 된장찌개 등 사이드 메뉴 외에 오겹살과 대패삼겹살, 소등갈비살 등 다른 부위의 고기 또한 다양하게 준비되어 있다. 점심 특선으로는 전복이 들어간 ‘흑돼지불고기전골’을 맛볼 수 있으며, 남녀노소 불문 가족과 단체 등 주차가 용이하여 부담 없이 방문 가능하다. 이수호 기자 goodnights1@busaneconomy.com 이수호 기자 goodnights1@busaneconomy.com 다른기사 보기 저작권자 © 부산제일경제 무단전재 및 재배포 금지 당신만 안 본 뉴스 [2022 부산 월드뷰티 EXPO] 부산 벡스코서 화려한 개막… 참여는 '저조' [2022 부산 월드뷰티 EXPO] MZ세대가 이끄는 '뷰티산업의 메카 부산' 부활의 신호탄 알려 CNC머신 국내 1위 디엔솔루션즈, 부산대와 산학협력 부울경 첫 민간 액셀러레이팅 프로그램 ‘시리즈스트롱’ 모집 8월 부산 산업 생산, 전년比 19.7% 증가 부산 사상구의회 ‘골목상권 공동체 육성 및 활성화 지원’ 조례 제정 더불어민주당 부산시당, “경남이 걷어찬 부울경 메가시티, 대통령실이 정리해야” [2022 부산 월드뷰티 EXPO] 부산 벡스코서 화려한 개막… 참여는 '저조' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 롯데팬 두 번 울리는 ‘조선의 4번 타자 이대호 은퇴식’ 입장권 암표거래 부울경 첫 민간 액셀러레이팅 프로그램 ‘시리즈스트롱’ 모집 선배가 들려주는 창업… 말랑하니의 ‘성장 스토리’ 르노코리아차, SM6 필 트림 새롭게 출시 부산 치의학 인재 양성 지산학 협력… 30호 브랜치 ㈜디오에 개소 XM3, 부산공장 생산 20만대 돌파 인기뉴스 1 HJ중공업, 거제공장 개장…일감 증가에 조선부문 투자확대 2 [인터뷰] “인기절정 신혼여행지 몰디브, 사전예약 통해 알뜰하고 지혜롭게” 3 롯데팬 두 번 울리는 ‘조선의 4번 타자 이대호 은퇴식’ 입장권 암표거래 4 [인터뷰] “중소기업과 소상공인을 위한 서비스업의 디지털전환(DX)이 비즈니스 모델” 5 제27회 BIFF D-2… 영화인·시네필·산업까지 축제의 장으로 6 국립해양박물관 소장 ‘감로도’, 부산시 문화재 지정 7 BNK캐피탈 “AI챗봇으로 고객편의·업무효율 제고” 8 캠코, 2384억원 규모 압류재산 공매…부산 32건 포함 포토뉴스 코나아이, 동백택시 서포터즈들과 ‘음주운전’ 근절 캠페인 펼쳐 [윤재우의 비대면 선거의 제왕 #33] 비대면은 빨리 변하지만 오래 견디는 사람이 승리… "장기전으로 봐야" 제27회 BIFF D-2… 영화인·시네필·산업까지 축제의 장으로 [인터뷰] “중소기업과 소상공인을 위한 서비스업의 디지털전환(DX)이 비즈니스 모델” 최신뉴스 코나아이, 동백택시 서포터즈들과 ‘음주운전’ 근절 캠페인 펼쳐 [윤재우의 비대면 선거의 제왕 #33] 비대면은 빨리 변하지만 오래 견디는 사람이 승리… "장기전으로 봐야" 제27회 BIFF D-2… 영화인·시네필·산업까지 축제의 장으로 [인터뷰] “중소기업과 소상공인을 위한 서비스업의 디지털전환(DX)이 비즈니스 모델” [인터뷰] “인기절정 신혼여행지 몰디브, 사전예약 통해 알뜰하고 지혜롭게” 하단영역 하단메뉴 회사소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리 매체정보 부산광역시 수영구 광남로 42, 국보빌딩 11층 대표전화 : 051-996-2400 팩스 : 051-996-2408 청소년보호책임자 : 이태희 법인명 : 부산제일경제 제호 : 부산제일경제 등록번호 : 부산 아 00219 등록일 : 2015-02-06 발행일 : 2015-02-06 발행·편집인 : 이태희 Copyright © 2022 부산제일경제. All rights reserved. mail to agency@busaneconomy.com 위로 전체메뉴 전체기사 카드뉴스 전체 이야기 오늘 통계로 본 부산 뉴스 전체 경제 산업 정치 사회 기업일반 유통 기업탐방 릴레이인터뷰 건강/의료 연예 스포츠 인사 라이프 자동생성기사 금융/증권 전체 금융동향 머니플러스 증권일반 종목/투자전략 빅데이터 인포스탁데일리 부동산 전체 정책 분양/건설 해양수산 전체 일반 수산물 항만 해운 교육 전체 교육일반 초/중/고/학원 대학 문화 전체 문화일반 전시/공연 마을활동가 기획/연재 전체 칼럼/기고 HOT 스타트업 연재 취재수첩 디지털이야기 사람을 만나다 Zoom in ASEAN 미래경영포럼 해외기획취재 社告/축사 중국뉴스 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 일본 관광객 유치 마케팅 ‘총력’ &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 [급등주]에이디테크놀로지 주가 상승, 반도체 대전서 ADP 로드맵 선보인다 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 [급등주] 일진홀딩스 상승, 롯데케미칼의 일진머티리얼즈 인수 영향 [급등주] SK네트웍스우 상승, 자사주 취득 공시 영향받나 [급등주]오픈엣지테크놀로지 주가, 상장 후 부진 만회하나 '22% 급등' [급등주] KR모터스 상승, 서울시 대기질 개선 대책 발표 [급등주]라닉스 주가 29% 상한가, 자율주행 관련주 각광 [특징주] 국전약품 주가 하락 '샤페론 수혜 끝났나' 2022-10-04 10:14 (화) [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 삼척시 인근서 산불발생...헬기 3대 투입 진화 대구시 동구 율암동 섬유공장에서 화재발생 인천 가정동 빌라서 불…"40대 남성 중상" 횡성군 비닐하우스서 화재…4명 부상 강원 양양 산불발생... 36분만에 진화완료 군산해경, 해상에 추락한 낚시객 등 구조 해경, 야간 갯바위 고립 낚시객 구조 원주서 택시·승용차 충돌...2명 부상 [속보] 경기 버스 노사 협상 타결 파업 철회...버스 정상운행 춘천 석사동 사무실 화재…인명피해 없어 수원 장안동 주택서 불…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 일본 관광객 유치 마케팅 ‘총력’ 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도관광협회, 일본 관광객 유치 마케팅 ‘총력’ 기자명 고병수 기자 입력 2018.04.02 00:27 수정 2018.04.02 01:05 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수 기자 = 제주특별자치도와 道관광협회(회장 김영진)는 3월 25일부터 29일까지 도내 일본 인바운드 전문 여행업체와 공동으로 일본 동경 및 오사카 지역 여행업계 방문 비즈니스 세일즈 마케팅을 전개했다고 1일 밝혔다.이번 일본 세일즈 마케팅은 제주 입도 관광객이 증가세로 전환되고 제주-일본간 접근성 개선에 따른 수요 창출의 극대화를 위해 제주 4․3 70주년을 연계한 기획상품 개발요청을 주력으로 한 상품 구성 협의가 진행됐다. 특히 현지 에이전트사 초청 제주관광 상품 활성화 간담회에서 제주 신규호텔과 제주지역 회원제 골프장에 적용되던 개별 소비세 감면 등의 정보교환, 인센티브 투어 및 트레킹 등 체험상품 구성을 적극 요청하기도 했다. 관계자는 "2018 제주 방문의 해를 맞아 도내업계의 세일즈 지원을 강화해 재외도민의 고향방문을 유도하는 등 일본 관광시장의 성장세를 유지하도록 최선을 다할 것"이라고 했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 이효리 이상순 임신 소식 언제 '불타오르지 않아' 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 김종민♥신지 결혼설, 축하 꽃다발 선물 누가? '특종세상' 배우 김태형, 10년 전 아들 잃고 충격...나이·근황은? 김종민♥신지 결혼설 해명 후 물오른 미모 '소멸될 듯' 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 주요기사 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 요양병원 접촉면회 4일부터 가능 '입소자 외박·외출도' 최신뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 포토뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 인기뉴스 1 [단독] 세종시, 태권도사범이 여중생 상대 '좋아한다'며 수차례 성관계 2 안철수, 당 대표가 돼야 하는 이유? 3 유럽 증시, 개장 직후 폭락···FTSE 100 1.6%· DAX 1.3% '뚝' 4 사천시 '항공우주청' 조기 설립 광폭행보 5 안양 호계동 아파트 공사장서 불…인명피해 없어 6 [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 7 러시아 우크라이나 전쟁···美 "유럽 주둔 미군 우발 상황에 대비" 8 우크라이나 러시아 전쟁, 파괴된 탱크 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 베트남서 제주관광상품 세일즈 추진 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 베트남서 제주관광상품 세일즈 추진 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회, 베트남서 제주관광상품 세일즈 추진 서한솔 기자 headlinejeju@headlinejeju.co.kr 승인 2018.04.01 13:29 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주도관광협회(회장 김영진) 지난 3월 29일부터 4월 1일까지 베트남 하노이 I.C.E에서 개최된 베트남국제관광마켓 VITM 2018에 참가해 해외시장 비즈니스 세일즈를 추진했다.VITM은 평균 약 6만5000여명의 관람객이 방문하는 베트남 지역 최대규모 관광전문 박람회로, 올해는 25개국 500개부스의 규모로 개최됐다.제주관광협회는 제주도내 관광사업체 8곳과 함께 이번 박람회에 참가해 미용과 연계한 상품 및 하반기 인센티브 단체 일정, 직항 전세기, 패키지 상품구성 등 세일즈를 진행했다.더불어 소비자를 대상으로 '4.3 70주년 제주방문의 해'를 홍보하고 축제, 마라톤 등 레저·스포츠와 제주시티투어버스 등 대중교통을 활용한 세일즈 마케팅을 추진했다특히  관광협회는 베트남 부유층을 대상으로 한 골프 등 고부가가치 제주상품을 기획하기 위해 베트남 골프협회 및 골프 매거진과 함께 공동 상품을 기획하기로 했다.한편 이 날 참가업체들은 총 70여건의 상품개발 협의와 함께 17건의 계약 진행을 위한 구체적인 상담을 실시하는 등 성과를 이뤄냈다.관광협회 관계자는 "도내업계의 해외시장 확대를 위한 마케팅 역량 및 경쟁력을 강화하기 위해 지속적인 비즈니스 세일즈 확대 등 홍보 마케팅을 추진 하겠다"고 전했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 서한솔 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도·관광협회, 박람회서 제주관광 홍보관 운영 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:25 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도·관광협회, 박람회서 제주관광 홍보관 운영 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 제주도·관광협회, 박람회서 제주관광 홍보관 운영 문유미 기자 승인 2018.04.08 17:12 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [제주일보=문유미 기자] 제주특별자치도와 제주시, 제주특별자치도관광협회는 지난 6일부터 8일까지 서울 여의도와 양재 aT센터에서 각각 개최된 ‘K-Festival 2018 파이팅 코리아 내 고향 페스티벌’과 ‘힐링페어 2018’에서 제주 관광 홍보관을 운영하며 관광객 유치에 열을 올렸다.‘K-Festival 2018 파이팅 코리아 내 고향 페스티벌’에서는 제23회 제주국제관광마라톤축제, 제주 레저스포츠 대축제, 탐라문화제 등 도내 다양한 축제를 홍보하며 축제 관광객 유치에 주력했다.‘힐링페어 2018’에서는 제주글램핑 등 도내 웰니스 관광 업체들이 함께 참여해 제주의 힐링테마 관광자원을 적극적으로 홍보했다.제주도와 제주관광협회는 앞으로 열리는 제33회 한국국제관광전 등 대형 관광박람회에도 참가해 국내외 개별관광객 유치 확대를 위한 지속적인 홍보마케팅을 전개할 예정이라고 밝혔다. 문유미 기자  moon@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 문유미 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>스타벅스, 제주도 환경·관광자원 보호 기금 조성 &lt; 산업 &lt; 기사본문 - 굿모닝경제 - 경제인의 나라, 경제인의 아침! 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 : 2022-10-04 09:25 (화) For translation 전체기사 로그인 회원가입 post youtube facebook 경제인의 나라, 경제인의 아침 전체메뉴 버튼 정치·정책 정책 국회 대통령실 정부부처 지방자치 경제금융 금융당국 은행 보험 제2금융 일반경제 증권 증권 자산운용 자본시장 블록체인 산업 재계 전자 자동차 정유 중공업 철강 정보통신과학 정보통신 방송·뉴미디어 게임 모빌리티 4차산업 생활경제 식품 유통 제약·바이오 병원 뷰티 패션 호텔 건설부동산·공기업 건설 분양 시황 교통 공기업 사회·문화 법원·검찰·경찰 사회일반 생활문화 연예·스포츠 오늘의날씨 건강 카드뉴스 오피니언 사설 데스크칼럼 칼럼 기자수첩 세미나·포럼 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 스타벅스, 제주도 환경·관광자원 보호 기금 조성 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 산업 스타벅스, 제주도 환경·관광자원 보호 기금 조성 기자명 김소희 기자 입력 2018.04.18 15:26 수정 2018.04.18 15:42 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주 카페 아메리카노와 라떼 출시하고 이를 통해 5000만원 확보 계획 스타벅스가 제주의 식물 자원을 소개하는 가이드북 제작을 위해 제주도 관련 상품을 출시하고 이를 통해 조성된 기금 5000만원을 전달하겠다는 계획이다. &lt;스타벅스코리아 제공&gt; [한국정책신문=김소희 기자] 스타벅스커피 코리아는 제주 카페 아메리카노와 제주 카페 라떼를 출시하고 제주 특화 음료 출시 2주년을 기념해 제주의 환경과 관광자원 보호를 위한 기금 5000만원을 조성하겠다고 18일 밝혔다. 스타벅스는 조성된 기금을 제주올레에 전달해 제주의 식물 자원을 소개하는 가이드북 제작을 지원한다. 스타벅스와 제주올레는 제주의 생태환경 보호를 위해 제주올레 길을 걸으며 제주의 식물을 만날 수 있도록 제주올레 식물 가이드북을 제작해 배포하는 방안을 협의할 예정이다. 제주 카페 아메리카노와 제주 카페 라떼는 케냐 원두를 사용해 만든 커피로 제주도 한정음료다. 제주 카페 아메리카노는 상쾌함이 느껴지는 첫 맛과 부드럽고 고소한 끝 맛이 특징이며, 제주 카페 라떼는 제주 감귤 풍미로 상쾌하고 산뜻한 맛을 선사한다. 박현숙 카테고리 총괄은 "제주도의 자연환경과 특산물에서 영감을 얻은 스타벅스의 다양한 제품과 상품이 고객 여러분들의 사랑을 받고 있다"며 "향후에도 한국적, 지역적 특색을 살린 제품을 고객에게 선보이고 우리 지역사회와 동반 성장할 수 있도록 최선을 다할 예정"이라고 전했다. 트윗하기 키워드 #스타벅스 #제주도 #기금지원 #가이드북 김소희 기자 kimsohee333@goodkyung.com 다른기사 보기 저작권자 © 굿모닝경제 - 경제인의 나라, 경제인의 아침! 무단전재 및 재배포 금지 당신만 안 본 뉴스 현대건설, 인천항만공사와 ESG 경영 협약 체결 [굿모닝! 오늘의 날씨] 대부분 오전에 비 그침...오후부터 쌀쌀 삼성SDI, 친환경선언...2050년까지 재생에너지 사용 전환 현대차그룹, 중남미·유럽 등서 부산엑스포 유치활동 사용자 '볼모' 법저지 나선 글로벌CP..."망사용료 입법 서둘러야" 포스코건설, 신반포 청구아파트 리모델링 사업 1810억원 수주 현대모비스, 미래 모빌리티 기술 확보...시장공략 '잰걸음' 현대건설, 인천항만공사와 ESG 경영 협약 체결 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 네이버, 북미 패션 커뮤니티 퍼쉬마크 2.3조에 인수 LS일렉트릭, 올해 ESG경영 원년 선포...2040년까지 넷제로 대내외 악재 겹쳐 '우울'…정유사, 상반기 쌓아둔 곳간 지키나 '쥐꼬리 이자' 옛말…저축은행 뛰어넘는 은행 예금금리 차기 금투협회장, 나재철·서명석·전병조 3파전 구도 굳히나 사용자 '볼모' 법저지 나선 글로벌CP..."망사용료 입법 서둘러야" 최신뉴스 임영웅 '보금자리', '더트롯쇼' 압도적 1위…12번째 정상 기보, 투자연계보증 확대…"벤처투자시장 활성화에 기여" "세자가 죽었다" 유해진X류준열 '올빼미', 11월 23일 개봉 셀트리온, 장질환 환자 편의 개선한 '과장님 케어'’ 앱 출시 네이버, 북미 패션 커뮤니티 퍼쉬마크 2.3조에 인수 인기뉴스 1 현대건설, 인천항만공사와 ESG 경영 협약 체결 2 [굿모닝! 오늘의 날씨] 대부분 오전에 비 그침...오후부터 쌀쌀 3 삼성SDI, 친환경선언...2050년까지 재생에너지 사용 전환 4 현대차그룹, 중남미·유럽 등서 부산엑스포 유치활동 5 사용자 '볼모' 법저지 나선 글로벌CP..."망사용료 입법 서둘러야" 6 포스코건설, 신반포 청구아파트 리모델링 사업 1810억원 수주 7 현대모비스, 미래 모빌리티 기술 확보...시장공략 '잰걸음' 8 노원구, 함께하는 탄소중립 실천선언 '2022 탄소중립 노원 한마당' 개최 하단메뉴 신문사소개 사업소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리인 매체정보 서울특별시 중구 삼일대로6길 5 조양빌딩(신관) 11층 대표전화 : 02-726-7493 팩스 : 02-777-6473 등록번호 : 서울 아03448 등록·발행일자 : 2014-11-24 대표이사·발행인 : 오운암 편집인 : 원충희 편집국장 : 이근형 청소년보호·개인정보관리 책임자 : 정성환 굿모닝경제 모든 콘텐츠(기사)는 저작권법의 보호를 받는 바, 무단전재, 복사, 배포 등을 금합니다. © 굿모닝경제 - 경제인의 나라, 경제인의 아침!. All rights reserved. 위로 전체메뉴 전체기사 정치·정책 전체 정책 국회 대통령실 정부부처 지방자치 여론조사 국제 경제금융 전체 금융당국 은행 보험 제2금융 일반경제 증권 전체 증권 자산운용 자본시장 블록체인 산업 전체 재계 전자 자동차 정유 중공업 철강 정보통신과학 전체 정보통신 방송·뉴미디어 게임 모빌리티 4차산업 생활경제 전체 식품 유통 제약·바이오 병원 뷰티 패션 호텔 건설부동산·공기업 전체 건설 분양 시황 교통 공기업 사회·문화 전체 법원·검찰·경찰 사회일반 생활문화 연예·스포츠 오늘의날씨 건강 카드뉴스 오피니언 전체 사설 데스크칼럼 칼럼 기자수첩 세미나·포럼 인사·부고·동정 포토 전체 연예포토 스타화보 스포츠포토 일반포토 동영상 전체메뉴닫기</t>
+    <t>제주도관광협회 인사 &lt; 관광/항공 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 인사 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 관광/항공 제주도관광협회 인사 기자명 한지형 기자 입력 2018.04.30 15:26 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도관광협회는 5월1일자로 19명에 대한 전보 인사를 단행했다고 30일 밝혔다.◇승진△김창효 회원지원국장 직무대리 △김보형 회원지원실장(4급) △문창보 회원관리팀장 직무대리(7급) △박장성 정책팀 주임(8급) △김대철 온라인 상품운영 주임(8급) △신수산나 서울홍보사무소 주임(8급) △양안미 종합관광안내소 주임(8급) △강문기 성산포안내소 팀장 직무대리(8급) △한유석 경영지원팀 주임(8급)◇전보△홍석균 제주종합관광안내센터장 △문명호 정책기획실장 직무대리 △한송이 회원지원팀 주임 △이영훈 회원지원팀 주임 △강민혜 회원관리팀 주임 △김두윤 시티투어팀 운영반장(계약직) △김완식 기획팀장 직무대리 △김지현 기획팀 담당 △김재성 온라인 웹UX팀장(계약직) △박승우 해외마케팅 담당 한지형 기자 my-yoshi@hanmail.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 중국 방한관광 재개 대비 업계 간담회 개최 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 중국 방한관광 재개 대비 업계 간담회 개최 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, 중국 방한관광 재개 대비 업계 간담회 개최 기자명 고병수 기자 입력 2018.04.27 14:56 수정 2018.04.27 14:58 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 관광업계 의견수렴 건전 경쟁 협조요청저가관광 벗어나 고품격 관광 공동 노력키로 (제주=국제뉴스) 고병수 기자 = 제주특별자치도와 제주도관광협회는 최근 한중관계의 긍정적 변화 움직임에 따라 중국 방한관광에 대비한 도내 관광업계와의 간담회를 26일 개최했다고 27일 밝혔다.간담회에는 도내 신라･롯데 면세점 등 면세업계, 중국 단체관광객을 제주에 유치해 온 여행업계 및 관광협회 임직원 등 20여명이 참석했다.이날 한중관계 개선관련 주요 동향을 공유하고 중국 단체관광객 방한금지가 해소될 경우를 대비한 관광업계의 의견수렴과 건전한 관광질서 정착을 위한 다양한 논의가 이뤄졌다.또한 중국시장 회복에 대응해 나가기 위해 업계의 자정노력, 행정의 적극적인 역할에 대한 논의가 중점 이뤄졌다.이날 간담회에는 관광업계 스스로의 자정노력과 저가관광, 인두세, 무등록 여행업, 무자격 가이드 문제 등에 대한 행정의 적극적인 정책 마련, 제주관광의 질적 성장을 위한 관광객, 도민 모두의 만족도 향상을 위한 행정의 역할에 대한 내용 등이 중점 논의됐다.관광업계는 저가관광 근절, 독과점 문제해결을 위한 자정노력과 무등록 여행사, 가이드 등 제주관광의 이미지를 훼손하는 사례는 행정의 강력한 단속과 제재가 필요하다데 의견을 함께했다. 면세업계 관계자는 "송객 수수료 지급과 관련해 자발적으로 다운시키는 자정노력을 실행중이며 단체관광에서 개별관광으로의 전환 추세 등을 고려할 때 중국 단체관광이 재개되더라도 종전과 같은 과도한 수수료 지급문제는 발생하지 않을 것"이라고 밝혔다.이날 간담회에서 김남진 제주도관광협회 부본부장은 "송객수수료 조정 문제는 현실적으로 매우 어려운 사안이나, 수수료 상한가를 정하는 제도개선은 반드시 필요하다"며 "제주만의 차별성있는 관광상품 인증제 시행 등을 통해 제주관광의 문제점을 제도적, 시스템적으로 해소할 것"을 요구했다.이에 대해 양기철 관광국장은 "제주도의 입장은 퀄리티 있는 제주관광 상품을 체험하러 양질의 관광객이 많이 방문해주길 바라는 것"이라며 "아직도 중국 관광 시장의 제주 수요 잠재력은 크고, 관광객 만족도뿐만 아니라 도민의 만족도도 중요한 시점에 와 있다. 고품격 상품개발을 통한 영업 방법의 개선과 인식의 변화"를 강력히 주문했다.관계자는 "앞으로 제주도는 사드 전 후 관광패턴의 변화에 적극 대응하고 제주관광의 발전을 저해하는 사안들에 대해 지속 관광업계와 논의의 장을 마련해 제주관광의 체질개선과 시장다변화에 적극적으로 노력해 나갈 방침"이라고 했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>"제주도 우수관광사업체 신청하세요" 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 "제주도 우수관광사업체 신청하세요" 도, 30일까지 공모…홍보‧역량강화 지원 (제주=뉴스1) 안서연 기자					| 2018-04-17 10:24 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 제주도청 전경.© News1 제주도는 오는 30일까지 2018년 우수관광사업체 지정을 희망하는 업체를 신청받는다고 17일 밝혔다.공모 대상은 제주도에 본점을 둔 사업체로 관광지, 교통, 숙박업, 여행업, 음식업 등 5개 분야이며 영업신고 또는 리모델링 후 1년 이상 경과된 업체여야 한다.이전에 우수관광사업체로 지정된 뒤 2년이 지나 2018년 6월 30일로 만료되는 사업체도 신청해 재지정을 받아야 한다.우수관광사업체 선정은 공모에 신청한 관광사업체의 신청서류 등 자격요건을 검토한 뒤 전문가들로 구성된 평가위원들의 현장평가와 우수관광사업체 평정위원회의 심의를 거쳐 이뤄진다.주요 평가항목은 사업체의 시설 및 환경, 서비스, 요금, 안전‧위생관리, 지역사회공헌도 등이며, 종합점수가 기준 점수(90점)에 충족된 경우 평정위원회 심의를 거쳐 최종 선정한다.지정기간은 오는 7월 1일부터 2020년 6월 30일까지 2년간이며, 제주특별자치도 관광진흥 조례 제65조(사후관리 및 지정취소)를 위반할 경우 지정이 취소된다.우수관광사업체로 지정되면 우수관광사업체 지정서 및 인증패가 수여되고, 온라인 및 리플릿 제작 등 홍보 지원과 함께 홍보지원금 70만원이 주어진다.또 우수관광사업체의 고객만족도 평가 및 중간 점검을 실시해 관광 불편사항이나 불만족 사례 개선을 위한 업체 컨설팅 및 친절 서비스 등 역량강화교육도 지원받게 된다.지정을 희망하는 사업체는 도 홈페이지(www.jeju.go.kr) 입법/공고/고시 게시판에서 신청서를 내려받아 작성한 뒤 제주도관광협회(064-741-8744)에 신청하면 된다.양기철 도 관광국장은 “제주 관광산업의 품질향상과 서비스 개선으로 관광객의 만족도 향상 및 관광 활성화에 최선을 다할 것”이라며 도내 업체들이 적극적인 신청을 당부했다.지난 2015년부터 지정된 우수관광사업체는 총 177개로, 현재는 107개소가 운영되고 있다. asy0104@ &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 핫뉴스 이지현 "돌싱 둘째남편 시댁서 아이들 거부…살림 못 합쳤다" 선우은숙, 4살 연하 유영재 아나운서와 결혼 "최근 혼인신고" 안현모, 재혼언급 "원하는 삶 살아줄 女 만나"…라이머 당혹 한동훈 어록 출판사 "韓, 거부땐 제작 중단…아무말 없었다" '남궁민♥' 진아름, 화사한 웨딩드레스 자태 "예쁘게 살 것" 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 프로농구 10개구단 감독들이 뽑은 새 시즌 우승후보는? KT… 2위 SK '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>제주도, 생태관광 사업대상 9개 단체 선정 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, 생태관광 사업대상 9개 단체 선정 등록 2018.04.16 09:56:45 작게 크게 【제주=뉴시스】 제주특별자치도청 전경. (사진=뉴시스DB)【제주=뉴시스】강정만 기자 = 제주특별자치도는 올해 곶자왈 등 생태관광 특화사업 대상자로 제주생태교육연구소 등 9개 단체를 선정했다고 16일 밝혔다. 곶자왈 등 생태관광 특화사업은 곶자왈 등 환경자원을 활용해 환경자산의 보전가치를 홍보하고, 곶자왈 등 청정과 공존의 이미지를 강조한 생태문화 프로그램 개발로 자연·문화·사람의 가치를 극대화하기 위해 추진하고 있는 사업이다. 신청사업은 해설사를 동반한 곶자왈 탐방, 오름과 곶자왈 지역 주민 삶의 이야기, 생태 문화교육과 전시회, 곶자왈·오름 트레킹 등으로 나타났다. 도는 사업비로 2억8000만원을 이들 단체에 지원한다. 도는 지난해 공모를 통해 제주문화곳간 바람이머무는 숲등 8개 단체에 1억원을 지원해 청정곶자왈의 특성을 활용한  다양한 생태프로그램을 추진했다. kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 세종시민단체 "상병헌 시의장 성추행 사과 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 "국가기관 자격시험 화장실 이용 후 재입실 금지...인권침해" 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 세종시민단체 "상병헌 시의장 성추행 사과 요구" 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 울산 남구, 일반음식점 2000곳에 위생모 지원 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '시즌 5승' 박민지, 세계랭킹 2계단 상승한 16위 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 610월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 7軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도, ‘관광진흥계획’ 수립 용역 추진 &lt; 거시 &lt; 경제 &lt; 기사본문 - 파이낸셜투데이 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집:2022-10-11 11:25 (화) 기사제보 로그인 회원가입 전체메뉴 버튼 전체기사 경제 거시 재계 산업 자동차·항공 게임 4차산업혁명 IT·전자 건설 중공업·에너지 금융 일반 은행 증권 보험 카드 시사 정치 사회 소비자 유통 식음료 뷰티·패션 레저·관광 헬스·바이오 교육 오피니언 칼럼 기자수첩 피플 파투만평 기사검색 검색 실시간 이복현 “금융당국, 가계부채 총량·구조 변화 필요성 절실히 못 느껴…송구하게 생각” 마스턴투자운용, 창립 12주년 체육대회 개최…“함께 성장하는 조직문화 형성” 닺 올린 카카오페이손보…첫 상품 금융안심보험 출시 롯데카드, ‘LOCA X 구독카드’ 추가 혜택 프로모션 진행 KB자산운용, 글로벌 원자력 ETF 출시 대우조선 향한 ‘그리스 선박왕’의 사랑...“父 생전 가장 아꼈던 파트너” AGE20’S, 쿠션 팩트 ‘노블 글로우 커버 쿠션’ 출시 KT ‘듀얼번호’ 가입자 23만명 돌파 김병욱 의원 “버팀목 전세자금대출, 연체 548억원…증가 추세” CJ올리브네트웍스, AI기술로 인공지능 배우 구현한다 본문영역 이전 기사보기 다음 기사보기 제주도, ‘관광진흥계획’ 수립 용역 추진 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 거시 제주도, ‘관광진흥계획’ 수립 용역 추진 기자명 김남홍 기자 승인 2018.04.15 09:49 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 사진=뉴시스 제주특별자치도는 제주관광의 지속가능한 질적 성장을 위해 2019년부터 부터 2023년까지를 목표 연도로 하는 제3차 제주특별자치도 관광진흥계획 수립 용역을 추진하고 있다고 15일 밝혔다. 이 계획에는 ▲중장기 제주관광의 비전과 목표 ▲제주 관광진흥 정책 방향 설정과 과제 도출 ▲정부의 관광정책과 연계방안 마련 ▲지역 상위계획 및 관광진흥계획 사업의 연계로 지속가능한 관광정책 수립 등의 내용이 담길 예정이다. 도는 특히 세계 관광시장의 변화와 정부의 관광계획, 제주의 미래비전, 국제자유도시종합계획 등과의 연계성 분석을 통해 지역관광산업의 활성화 기반을 마련하는 등 이번 용역을 중장기 제주관광 로드맵과 마스터플랜으로 수립할 계획이다. 이번 용역은 제주관광학회(회장 신왕근)에서 맡아 11월까지 자문회의, 중간보고회, 관광 진흥협의회를 개최해 단계별로 점검하고 보완하게 된다. 파이낸셜투데이 김남홍 기자 김남홍 기자 nhk@ftoday.co.kr 다른기사 보기 저작권자 © 파이낸셜투데이 무단전재 및 재배포 금지 당신만 안 본 뉴스 KFC, 10월1일 단 하루 치킨 메뉴 1+1 제공 풍전등화 ‘대우건설’, 한남2구역 총회 앞두고 ‘위기?’ 韓 게임업계, 애플 ‘인앱결제 인상’ 선포에도 ‘가격 유지’ 가닥 그라비티 ‘라그나로크 아레나’, 출시 첫 주 성적표는 ‘완만한 상승곡선’ SPC 파리바게뜨, 10월의 ‘파바데이’ 프로모션 진행 Green AI로 넷제로에 다가가는 SK텔레콤 [게임만담] 955억원 받는 위메이드의 ‘미르 IP 수호전’은 ‘현재진행형’ KFC, 10월1일 단 하루 치킨 메뉴 1+1 제공 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 이복현 “금융당국, 가계부채 총량·구조 변화 필요성 절실히 못 느껴…송구하게 생각” 닺 올린 카카오페이손보…첫 상품 금융안심보험 출시 김병욱 의원 “버팀목 전세자금대출, 연체 548억원…증가 추세” 5G 상용화 4년, 여전히 ‘속 빈 강정’ 메리츠증권, 업황 부진 속 ‘1조클럽’ 입성 도전 풍전등화 ‘대우건설’, 한남2구역 총회 앞두고 ‘위기?’ 최신뉴스 이복현 “금융당국, 가계부채 총량·구조 변화 필요성 절실히 못 느껴…송구하게 생각” 마스턴투자운용, 창립 12주년 체육대회 개최…“함께 성장하는 조직문화 형성” 닺 올린 카카오페이손보…첫 상품 금융안심보험 출시 롯데카드, ‘LOCA X 구독카드’ 추가 혜택 프로모션 진행 KB자산운용, 글로벌 원자력 ETF 출시 포토뉴스 인기뉴스 1 KFC, 10월1일 단 하루 치킨 메뉴 1+1 제공 2 풍전등화 ‘대우건설’, 한남2구역 총회 앞두고 ‘위기?’ 3 韓 게임업계, 애플 ‘인앱결제 인상’ 선포에도 ‘가격 유지’ 가닥 4 그라비티 ‘라그나로크 아레나’, 출시 첫 주 성적표는 ‘완만한 상승곡선’ 5 SPC 파리바게뜨, 10월의 ‘파바데이’ 프로모션 진행 6 Green AI로 넷제로에 다가가는 SK텔레콤 7 [게임만담] 955억원 받는 위메이드의 ‘미르 IP 수호전’은 ‘현재진행형’ 8 크래프톤 신작 문브레이커, 스팀 얼리 액세스 평가 ‘매우 긍정적’ 매체소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS top 서울특별시 마포구 백범로31길 8, 201동 6층 (공덕SK리더스뷰) 대표전화 : 02-2672-7114 팩스 : 02-868-7114 청소년보호책임자 : 한종민 법인명 : (주)파이낸셜투데이 제호 : 파이낸셜투데이 등록번호 : 서울 아01915 등록일 : 2005-05-21 대표이사 : 한병인 편집국장 : 김영권 파이낸셜투데이 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 파이낸셜투데이. All rights reserved. mail to ftodayhan@hanmail.net 위로 전체메뉴 전체기사 경제 전체 거시 재계 전국 산업 전체 자동차·항공 게임 4차산업혁명 IT·전자 건설 중공업·에너지 금융 전체 일반 은행 증권 보험 카드 소비자 전체 유통 식음료 뷰티·패션 레저·관광 헬스·바이오 교육 시사 전체 정치 사회 오피니언 전체 칼럼 기자수첩 피플 파투만평 피플 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>경인일보 : 중국의 제주도 '하이난(海南)'에 한국인 등 관광비자 면제 경인일보 제보안내 경인일보는 독자 여러분의 소중한 제보를 기다립니다. 제보자 신분은 경인일보 보도 준칙에 의해 철저히 보호되며, 제공하신 개인정보는 취재를 위해서만 사용됩니다. 제보 방법은 홈페이지 외에도 이메일 및 카카오톡을 통해 제보할 수 있습니다. - 이메일 문의 : jebo@kyeongin.com - 카카오톡 ID : @경인일보 개인정보의 수집 및 이용에 대한 안내 수집항목 : 회사명, 이름, 전화번호, 이메일 수집목적 : 본인확인, 접수 및 결과 회신 이용기간 : 원칙적으로 개인정보 수집 및 이용목적이 달성된 후에 해당정보를 지체없이 파기합니다. 개인정보 수집 및 이용에 동의합니다. 기사제보 개인정보 보호를 위해 익명 제보가 가능합니다. 단, 추가 취재가 필요한 제보자는 연락처를 정확히 입력해주시기 바랍니다. *최대 용량 10MB 제보하기 전체메뉴 검색 오피니언 인천 지역 정치 경제 사회 문화 스포츠 로그인 회원가입 뉴스홈 전체기사 정치 경제 사회 문화 스포츠 사람들 기획(경기) 기획(인천) 특집 오피니언 오피니언 홈 사설 참성단 윤인수칼럼 경인칼럼 기명칼럼 데스크칼럼 월요논단 수요광장 경제전망대 춘추 칼럼 전문가칼럼 오늘의 창 노트북 기고 인천 인천 홈 정치 경제 사회 문화생활 지역 남부권 중부권 서부권 동부권 북부권 K스토리 K스토리 이슈&amp;스토리 영상·포토 리얼영상 포토 비주얼 통 큰 시리즈 경인 WIDE 경인 In-Depth 지면보기 구독신청 기사제보 검색 닫기 추천 키워드 전국체전 SSG 랜더스 도서관의 미래 경기도 쌀 수매 코로나 그늘 무형문화재 인천고등법원 경기도 버스 준공영제 제물포 르네상스 지역화폐 예산 1기 신도시 인천e음 캐시백 내가 추천 인천책 경인 WIDE Editor's PICK 장비 고치는데만 일주일… 장애인은 '강제 외출금지' "서서 못가" 아닌 "아예 못가" 인천 남동구민 극한 출근 [경기도 근대문화유산 탐방] 이천 수광리 오름가마 국제 국제종합 중국의 제주도 '하이난(海南)'에 한국인 등 관광비자 면제 입력 2018-04-18 15:55:18 가 가 공유하기 페이스북 카카오톡 네이버 밴드 트위터 url 복사 송수은기자 sueun2@kyeongin.com 송수은기자 기사모음 중국이 오는 2035년까지 남부 하이난(海南)성 전역에 자유무역항 체제를 구축한다고 관영 신화통신이 15일 보도했다. 사진은 지난 3월 15일 촬영한 하이난성 보아오(博鰲) 해안 지역 모습이다. 통신은 "하이난 자유무역항이 세계에서 가장 개방된 경제지대로서 무역·투자에 있어 전반적인 특혜정책에 힘입어 싱가포르, 홍콩처럼 번영할 것으로 기대된다"고 전망했다. /연합뉴스중국 정부가 중국의 제주도인 하이난(海南)성을 출입하는 한국인에 대해 관광비자를 면제키로 했다.이는 '홍콩의 뒤를 잇는 자유무역항'으로 선정된 하이난을 홍보하기 위한 것으로 보인다.중국중앙방송 CCTV에 따르면 중국 공안부는 18일 국가이민관리국이 하이난성의 개혁개방을 지원하기 위해 5월 1일부터 한국을 포함해 59개국에 대해 관광비자를 면제할 것이라고 밝혔다.이밖에 미국, 영국, 프랑스, 독일, 러시아, 일본, 필리핀, 인도네시아 등이 관광비자 면제 대상에 포함됐다. 하이난 관광비자 면제 체류 기간은 이전의 15일 또는 21일에서 30일까지 연장된다. 다만 입경 후 하이난 외 다른 중국 지역으로 갈 수는 없다.취윈하이 중국 국가이민관리국 부국장은 "이번 관광비자 면제는 하이난의 외국인 관광객 유치를 위한 것"이라며 "비자면제 체류 기간을 늘리고 면제 인원수에 대한 제한도 완화했다"고 설명했다.앞서 시진핑 중국 국가주석은 지난 13일 하이난 경제특구 건설 30주년 기념식에서 하이난에 중국 특색 자유무역항 건설을 정식으로 선언한 바 있다. 시 주석은 이 자리에서 "당 중앙은 하이난에 자유무역실험구를 건설하기로 했고 이를 지지한다"며 "단계적이고 안정적으로 중국 특색 자유무역항으로 만들겠다"고 다짐했다.특히 "이번 결정은 경제 세계화에 관한 중대한 조치를 적극적으로 추진하는 것"이라며 "신시대 중국 특색 사회주의의 생동감 있는 사례를 만들기 위해 노력했다"고 강조했다. 시 주석은 지난 10일 세계 정상급 지도자와 재계 인사들이 모여든 중국 하이난성 보아오포럼장에서도 하이난을 '개혁개방의 전초지'로 삼겠다는 뜻을 밝혔다.시 주석의 이날 선언으로 하이난은 중화인민공화국 출범 이후 중국 본토에 들어서는 첫 '중국 특색의 자유무역항'의 영예를 안게 됐다./송수은기자 sueun2@kyeongin.com &lt;저작권자 ⓒ 경인일보 (www.kyeongin.com), 무단전재 및 수집, 재배포 금지&gt; 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 오늘의 경인일보 TODAY PICK 신기술인가 신기루인가 지난 대선 당시 후보들이 직접 플랫폼을 사용하며 열풍을 일으킨 '메타버스(Metaverse)'가 신기루처럼 대중들의 눈앞에서 사라졌다. 관련 기술의 발전과 코로나19 팬데믹이 겹치면서, 가상세계를 통해 현실세계와 같은 사회·경제·문화 활동이 이뤄질 것이란 기대가 컸다. 그러나 선거가 끝나자마자 정치인들도 메타버스 플랫폼에서 자취를 감췄고, 대중들 역시 코로나 엔데믹 여파로 이에 대한 관심을 접어두고 있다. 그 사이 성착취 등 부작용은 늘고 있는데 정작 이를 예방할 수 있는 법적 장치 마련에는 정치권이 소홀한 모습이다. 대선·지선주자들, 너도나도 활용가상인물·공간… 이색유세 펼쳐 메타버스가 가장 주목받은 시기는 올해 가장 큰 정치이벤트였던 '20대 대통령선거'와 '8회 전국동시지방선거' 때다. 대선에 앞서 정치권에서는 지난해 8월부터 당내 경선이 순차적으로 시작됐고 이 과정에서 정당들은 메타버스를 활용해 유권자와 실시간 정책 소통, 공약 홍보, 선거운동 등을 했다. 메타버스를.. 김동연의 100일공직사회 잘 알기에… 관성 깨는 도정철학 공공의료 공백 인천의료원, 7개 과목 '휴진'… 시민 헛걸음, 전국서 버금간다 국회 국감 화두 경기도내 RPC, 전국 최악 적자… 국감선 '지역농협 지원' 목소리 공정위 표준약관 구멍 허술한 공정거래위원회 '셀프빨래방 표준약관' 두 번 우는 점주들 오늘의 사건사고 부부 싸움하다 불 지르려 휘발유 뿌린 남성 붙잡혀… 경찰 구속영장 신청 배재흥 기자 부천서 80대 아버지 흉기로 찌른 아들 붙잡혀… '가정불화 추정' 이상훈 기자 부천 호프집서도 '먹튀'에 직원 성희롱까지… 주민들 공분 이상훈 기자 경인 WIDE 구단 매각 언급에 축구팬 반발 돈줄 막힐땐 걷어차고, 비리 엮일땐 팽개치고… 시민축구단 현실 K4리그에서 활약하던 인천남동구민축구단은 올해 갑작스럽게 해체 결정을 내렸다. 해체 이유는 재정적인 어려움이었다. 2020년 K4리그 출범 때부터 리그에 참가했던 인천남동구민축구단은 남동구청의 보조금을 토대로 인천 지역 유일의 K4리그 팀으로 활약해 왔지만, 올해 남동구의 지원이 끊기자 선수들과 직원들의 임금을 주지 못하는 사태에까지 이르렀다.인천남동구민축구단 지원 조례의 유효기간을 연장하는 내용이 담긴 조례안이 상정됐지만, 네 번이나 부결되면서 남동구의회를 통과하지 못했다. 재정난 닥친 인천남동구민축구단선수 급여 지급 어렵.. 정책따라 흔들리는 지역화폐 지역화폐 동력 '인센티브'… 예산 쥔 정부만 바라본다 정부가 내년도 지역화폐 관련 예산을 전액 삭감하면서 경기지역화폐가 또 한 번 위기를 맞았다. 골목상권 보호 등을 통한 지역경제 활성화라는 공공성을 가졌지만, 예산 등 정책이 바뀔 때마다 지역화폐가 화두에 오르는 일이 반복되는 것이다.특히 국비 지원 중단은 인센티브(캐시백·할인율 등) 지급 등 지역화폐 경쟁력을 흔드는데, 지역화폐 시행 3년이 지나도록 이 같은 악순환이 계속되고 있다. 이 때문에 지역화폐의 지속가능성, 안정성을 확보하기 위한 대책 마련이 필요하다는 목소리가 나온다. 용인시민 A(33)씨는 지역화폐 '와이페이'.. 지역 시민단체 위기 각자도생의 시대, 휘청이는 시민사회 시민단체의 사회적 영향력·신뢰도는 예전 같지 않다. 특히 지역시민단체는 중앙보다 재정력이 약해 활동이 위축되고 시민들은 가입하지 않는 '악순환'이 반복된다.그럼에도 전문가와 시민단체 관계자들은 여전히 시민단체가 존재해야 한다고 말한다. 소외될 수 있는 지역주민의 목소리를 대변하고 권한이 강해진 지자체를 견제하기 위해 지역시민단체가 필요하다는 것이다.수원이주민센터, 회원 75% 줄어무관심 → 재정악화 → 활동위축이주민 인권증진·지원활동을 해온 시민단체 '수원이주민센터'의 회원은 4년 사이 400명에서 100명으로 줄었다. 회비,.. 신문사소개| 윤리강령| 고충처리| 기사제보| 구독신청| 개인정보 처리방침| 청소년 보호정책| 디지털뉴스 이용 규칙| 그룹웨어| 사이트맵 본사 :&amp;nbsp(16488) 경기도 수원시 팔달구 효원로 299 경인일보사빌딩  |  TEL :  031-231-5114   |   FAX : 031-232-1231/0339  |  구독신청 1588-3001 인천본사 :  (21556) 인천광역시 남동구 남동대로 773 3층   |   TEL : 032-861-3200   |   FAX : 032-861-3206/3209 인터넷신문등록번호 : 경기 아51587   |   등록일자 : 2017.07.17   |   ISSN 2635-9596   | 발행인/편집인 : 배상록 경인일보의 모든 콘텐츠(기사)는 저작권법의 보호를 받은바, 무단 전재, 복사, 배포 등을 금합니다. Copyright (c) by 경인일보 All rights reserved.</t>
+  </si>
+  <si>
+    <t>신세계 ‘제주소주’, 제주도 관광객 타깃 ‘푸른밤 미니어쳐 선물세트’ 선봬 - 아시아투데이 아시아투데이 서울 다른도시13.2℃ 춘천강릉서울인천충주대전대구전주울산광주부산제주 뉴델리 22℃ 도쿄 24.9℃ 베이징 16℃ 자카르타 30℃ 네이버뉴스스탠드 네이버 포스트 유투브 페이스북 트위터 최신 오피니언 사설 칼럼·외고 기자의 눈 피플 정치 정치일반 대통령실 국회·정당 북한 외교 국방 정부 사회 사회일반 사건·사고 법원·검찰 교육·행정 노동·복지·환경 보건·의약 경제 경제일반 정책 금융·증권 산업 IT·과학 부동산 유통 중기·벤처 아투시티뉴스 종합 경기·인천 세종·충청 영남 호남 강원 제주 국제 세계일반 아시아·호주 북미 중남미 유럽 중동·아프리카 문화·스포츠 전체 방송 가요 영화 문화 종교 스포츠 여행 포토 전체 포토 비주얼뉴스 지면보기 제보24시 자문위원단 독자권익위원회 아투TV 대학동문골프최강전 글로벌 리더스 클럽 English中文 신세계 ‘제주소주’, 제주도 관광객 타깃 ‘푸른밤 미니어쳐 선물세트’ 선봬 "카카오, 3분기 영업익 시장 기대치 하향…목표가↓" SKT, 고객만족도 3대 조사 이동통신 부문 1위 2022년 10월 11일(화) 자문위원단 독자권익위원회 제보24시 전체메뉴 경제 경제일반 정책 금융·증권 산업 IT·과학 부동산 유통 중기·벤처 검색버튼 신세계 ‘제주소주’, 제주도 관광객 타깃 ‘푸른밤 미니어쳐 선물세트’ 선봬 기사승인 2018. 04. 16. 10:51 가 (더 작게) 가 (작게) 가 (기본) 가 (크게) 가 (더 크게) 푸른밤 미니어쳐 세트0 신세계그룹의 제주소주가 17일 ‘푸른밤 미니어쳐 선물세트’를 새롭게 출시한다고 16일 밝혔다. ‘푸른밤 미니어쳐 선물세트’는 80㎖ 미니어쳐 6개 들이로, 16.9도의 ‘짧은밤’ 3개와 20.1도의 ‘긴밤’ 3개로 구성돼 2가지 제품을 모두 즐길 수 있다.특히 주류회사들의 단순한 미니어쳐 세트에서 벗어나 ‘푸른밤’을 떠올리게 하는 짙은 파란색의 세련된 디자인을 채택해 고객들의 만족감을 높인다는 계획이다. 가격은 5180원으로, 제주도 내 이마트 3개점(제주점·신제주점·서귀포점)에서 판매하며, 향후 도 내 지역마트 및 전국 신세계그룹 유통채널에서도 만나볼 수 있도록 할 예정이다.제주소주는 최근 소확행(작지만 확실한 행복) 등 트렌드가 확산되면서 제주도를 찾는 사람들이 많아졌고, 기념품을 소장하려는 수요가 커져 ‘푸른밤 미니어쳐 선물세트’를 새롭게 선보인다고 전했다. 실제로 제주관광협회에 따르면 지난해 제주도를 찾은 내국인 관광객수는 1352만명으로 2016년에 비해 10.4% 더 늘어난 것으로 나타났다.김운아 제주소주 대표는 “제주도를 찾은 관광객들이 아름다웠던 제주도의 푸른밤을 추억할 수 있도록 ‘푸른밤 미니어쳐 선물세트’를 새롭게 출시했다”면서 “제주소주는 앞으로도 다양한 상품 출시는 물론 친환경 경영을 실천하는 향토기업으로서의 역할에도 앞장설 예정”이라고 말했다. 김지혜 기자 affinity@asiatoday.co.kr ⓒ아시아투데이, 무단전재 및 재배포 금지 댓글 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 많이 본 뉴스 연예가 핫 뉴스 1 북한, 전투기 150대 동시출격…군, F-35A로 맞대응 2 野 “한동훈 美 출장에 현직 검사 동행”…韓 “실무자 수.. 3 장성 황룡강 가을꽃축제, ‘사람반 꽃반’ 첫날 방문객 6.. 4 삼성전자 “우크라 지사, 미사일 직격 면해… 인명 피해.. 5 ‘음주측정 불응·경찰폭행’ 장용준 14일 대법 선고 6 1000만원 짜리 골프 원숭이 NFT ‘오픈런 대란’ 1 ‘환승연애2’ 정현규♥성해은, 달달함 통했나…티빙 유료가.. 2 임영웅의 기록은 어디까지? 유튜브 조회수 17억 뷰 눈앞.. 3 ‘숨은 히어로’ 김하성, 이번엔 111승 다저스 사냥 ‘.. 4 정동원x박지원, 훈훈한 케미…“‘러브 액츄얼리’로 만나.. 5 배우 선우은숙, 아나운서 유영재와 결혼 “최근 혼인신고”.. 6 kt, NC 5-2로 꺾고 준플레이오프 직행에 1승만 남.. 오늘의 주요뉴스 “네이버, 소상공인 기금 일부 유용”…네이버 “입장없다” ‘부동산 매물정보 갑질’ 네이버 최수연 첫 재판 연기 이해진 “라인 韓기업이라면, 네이버 韓 아닌 외국기업” 尹, 친일국방 공세에 “北위협 어떤 우려 정당화되나” 유승민 “李, 中 3불 강요 ‘한미일 군사동맹’ 쓰지말라” 건보개편 후폭풍?…국민연금 자발적 가입자 첫 감소 홍준표, 당권주자 겨냥 “배신 경력자는 나오지 말라” ‘신화’ 신혜성, 도난차량서 음주측정 거부하다 체포 신규확진 1만5476명 감소세…사망 10명, 석달새 최소 ‘다사다난’ 오세훈 시장 취임 100일…성과와 과제는 글로벌리더스클럽 회사소개 | 광고안내 | 행사안내 | 구독신청 | 제보24시 | 고충처리 | 회원약관 | 개인정보취급방침 | 청소년보호정책 | 저작권규약 | 인재채용 등록번호 : 서울 아00160 | 등록일 : 2006년 1월 18일 | 제호 : 아시아투데이 | 회장 : 송인준 | 발행인ㆍ편집인 : 우종순 서울시 영등포구 의사당대로1길 34 인영빌딩 | 발행일자 : 2005년 11월 11일 | 대표전화 : 02) 769-5000 | 청소년보호책임자 : 성희제 아시아투데이는 인터넷신문위원회 윤리강령을 준수합니다. Copyright by ASIATODAY Co., Ltd. All Rights Reserved</t>
+  </si>
+  <si>
+    <t>제주도관광협회 등반동호회, 동광 4.3길 걷기 행사 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회 등반동호회, 동광 4.3길 걷기 행사 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회 등반동호회, 동광 4.3길 걷기 행사 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2018.04.21 15:08 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회 등반동호회(회장 고철원 곡천화원 대표)는 21일 제주도내 관광사업체 대표, 임원 및 종사자 등으로 구성된 회원 40여명과 함께 안덕 동광마을 4·3길 걷기와 제주알프스보석궁전 테마파크를 관람하는 등반동호회 행사를 진행했다.한편 등반동호회의 차기 회장은 박지혜 이음새 대표가 선임됐다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>서울특별시 미디어재단 TBS 메인메뉴바로가기 본문바로가기 TV FM 95.1 eFM 101.3 뉴스 교통정보 로그인 · 회원가입 · ABOUT TBS 전체메뉴 시작 TV 프로그램소개 편성표 VOD다시보기 TV시청방법안내 FM 프로그램소개 편성표 다시듣기 eFM About the program Schedule AOD Replay Announcements Board 뉴스 지역·시민 교통 세계 인싸이언스 코로나19 분야별 교통정보 주요지역 속도정보 교통정보 전화번호 홈 지역·시민 교통 세계 인싸이언스 코로나19 분야별 전체 수도권 정치 경제 사회 국제 문화·스포츠 뉴스제보 정치 [서해성의 박학다설] 잠들지 못하는 섬, 제주도(3) : ‘관광 총살’을 아시나요? 지혜롬 tbs3@naver.com 2018-04-20 21:34 서해성 작가 내용 인용시 tbs &lt;색다른 시선, 김종배입니다&gt;와의 인터뷰 내용임을 밝혀주시기 바랍니다.● 방송 : 2018. 4. 20. (금) 18:18~20:00 (FM 95.1)● 진행 : 김종배 시사평론가● 대담 : 서해성 작가[서해성의 박학다설] 잠들지 못하는 섬, 제주도(3) : ‘관광 총살’을 아시나요?▶ 김종배 : 우리시대의 지식광대죠. 서해성 작가 모셨습니다. 어서 오세요. ▷ 서해성 : 안녕하셨습니까?▶ 김종배 : ‘문영미, 전영미, 안영미’ 님이 “서해성 작가님 어서 오세요”라고 제 대신 지금 인사를,▷ 서해성 : 반갑습니다.▶ 김종배 : 지난주에 다 못 끝낸 이야기가 있습니다. 제주학살, 그렇죠? 이야기를 이어가봐야 될 것 같은데, 초토화 작전 이야기를 할까 하다가 결국은 거기서 끊긴 것 같습니다.▷ 서해성 : 그랬었죠. 초토화라는 개념이 정말 땅을 불태운다, 남김없이 없앤다. 그런데 한국어하고도 관련이 있습니다, 이 말의 어원이.▶ 김종배 : 어떻게요?▷ 서해성 : 왜냐하면 바로 대동강에 들어왔던, 조선시대 때 바로 제너럴 셔먼호라고 하는 그 배가 이름이 붙은 게 제너럴(general) 뜻이 장군, 이런 말이지 않습니까? 바로 그 셔먼 장군이 미국에서 남북전쟁을 할 때 처음으로 만든 작전이 바로 초토화 작전입니다. 그러니까 아무것도 남김없이 해서 그 당시에 남군을 바다 쪽으로 몰아냈다는 뜻입니다.▶ 김종배 : 한 마디로 약간 싹 쓸어버린다. ▷ 서해성 : 그렇습니다. 단지 군인만 쓸어내는 것이 아니라 우선 민간인을 분리해내는 게 주목적입니다. 민간인을 완전히 분리해내고, 그리고 그 사람들 쓸 수 있는 식량, 통신수단, 우물 같은 걸 메우는 거죠. 그렇게 해서 그 사람들이 다시 후방 역량을 가질 수 없도록 한 상태에서 사지로 몰아넣는 것을 초토화 작전이라고 합니다. 그런데 우리는 제주도에서 바로 그 작전, 초토화 작전을 구사했다는 겁니다. ▶ 김종배 : 그런데 초토화 작전은 전쟁 때 하는 거잖아요. ▷ 서해성 : 그렇습니다. 민간인을 상대로 해서 초토화 작전 같은 것은 사실 하지 않는 것이 일반적인 경우입니다. 그런데 그렇게 제주도에서 4.3이 학살인 이유에 중요한 부분이 되는 부분이라는 말씀을 드리는 것이고요. 그리고 사실 무엇보다 한 마디로 줄여서 말해서 제주도에서 돌아가신 분들 중에 반 정도가 대략 한 1만 4천 명 가까운 1만 4천, 1만 5천 정도에 가까운 사람들이 어떻게 돌아가셨냐면요, 실은 도피자 가족이라는 이름으로 죽었습니다. ▶ 김종배 : 지난주에 대살이라고 했던.▷ 서해성 : 네. 대살이 바로 그것입니다.▶ 김종배 : 대신 살해한다.▷ 서해성 : 네. 가령 홍길동을 찾으러 갔으니까 없으니까 홍길동 가족을 다 죽이는 거죠. 그러니까 그 중에 남로당도 일했다, 맞습니다. 남로당도 조직적으로 움직이긴 했으나 그 전체의 규모에 비하면 남로당 조직은 미미한 것이었습니다. 그러니까 4.3이 학살이었다는 걸 명백하게 입증하는 것이 바로 대살, 대신 죽이는 것. 그 당시에 젊은이들은 10대 후반에서부터 40대 후반까지는 다 도망가 있었습니다. 안 그러면 죽게 되니까요. 그러니까 그럴 때 그런 가족들을 죽였다는 것이죠. 그중에 정말 끔찍한 것 중에 하나는, 대살 중에 가장 끔찍한 것은 실은 ‘관광 총살’이라는 게 있었습니다. ▶ 김종배 : 그건 또 뭐예요? ▷ 서해성 : 사람을 어느 마을 사람들을 다 죽이지 않고 일부를 죽이면서 나머지 사람들에게 죽이는 걸 보도록 하는 겁니다. 학살을 구경시키는 거죠. 그래서 저는 사실 제주 관광이라는 말이 나올 때마다, 저는 늘 관광총살이라는 말이 같이 떠올라서 그 제주 관광이라는 말을 제가 썩 좋아하지 않게 되는 겁니다. 역사를 아는 것 때문에. 인간이 할 수 있는 가장 잔인한 일들을 왜 그렇게 많이 잘 찾아서 했을까? 제가 지난주에 방송을 하면서 재판을 받고, 엉터리 재판이었지만 재판을 받고 죽은 사람들은 하늘의 복을 받은 사람들이라고 제가 그랬습니다. 그러니까 얼마나 끔찍했으면 제가 그렇게 말을 했겠습니까? 하물며 그 ‘관광 총살’을 구경한 사람들이죠. 총살을 구경한 사람들도 그 뒤에 다시 이제 도망자 가족이라고 그래서 또 죽게 되는, 그런 것이 바로 4.3이었다는 말씀을 드립니다.▶ 김종배 : 그러니까 거의 대부분의 사람들이 재판을 거치지 않고 그냥 살해당한 거잖아요. ▷ 서해성 : 그렇습니다.▶ 김종배 : 산사람들, 무장상태는 어땠어요? ▷ 서해성 : 산사람들 무장상태, 주로 이 사람들이 가지고 있었던 무장은 일본식 이른바 99식 소총을 갖고 있었습니다. ▶ 김종배 : 그건 어떤 거예요?▷ 서해성 : 99식 소총이라는 게 이제 일본소총의 그전에 있었던 소총 무라타 소총이라고 합니다. 무라타 소총에 30, 23, 이런 연호가 붙는데 그건 메이지(明治) 집권기를 얘기하는 것입니다.▶ 김종배 : 그렇게까지 거슬러 올라가요?▷ 서해성 : 메이지가 집권했을 적에 그런 총들을 만들었다, 이거죠. 그 99식 장총이라는 것은 어떤 걸 얘기하는 거냐면 나중에 아리사카라고 하는 사람이 또 총을 만드는 사람입니다. 그 사람이 만든, 마지막 만든 일본 총, 그걸 아라사카 총이라고 하는데 그것이 황기, 일본말로, 그때 하필이면 일본이 신화적인 연도가 끝자리가 99년도로 끝났습니다. 그러니까 그걸 가지고 이제 99식 장총이라고 부르는 것이죠. ▶ 김종배 : 그래서 99식?▷ 서해성 : 네. 구식(舊式)이라는 뜻이 아닙니다. 그 당시로서는 썩 괜찮은 총 중에 하나이죠. 한 번 당겨서 쏜다, 그래서 볼트액션, 볼트액션의 아시아에서 만든 대표적인 총기 중에 하나라고 생각하시면 되겠습니다. 주로 그런 총을 가지고 있었습니다. 그러니까 뛰어난 총이다, 이렇게 말할 수는 없습니다, 아리사카 소총이라고 하는 것이. 그런데 우리 한국 군인들이 가지고 있었던 건 카빈 소총들이었죠. 그러다 보니까 그러면 그 당시 산에 있는 사람들이 다 총을 가지고 있었느냐? 그렇지 않았습니다. 몇 가지 기록, 이게 미군이나 우리가 가지고 있는 국군의 기록을 그냥 살펴보면 어느 날 있었던 전투인데 &lt;조선중앙일보&gt;에 1949년 3월 20일자에 보도된 신문내용입니다. 사살 181명, 포로 195명, 그러니까 거의 한 400명 가까이 잡았지 않았습니까? 그런데 소총은 3정입니다. 그러니까 무슨 얘긴지 아시겠죠?▶ 김종배 : 그러니까 포로가 195, 거의 200명 가까이 되는데 수거한 소총이 세 정이라고 한다면, ▷ 서해성 : 카빈 소총도 세 정 있고 합니다만 그렇다는 거죠. 그 뒤에 49년도 1월 6일 날 제2 연대 진압작전에 있었던 것 중에 하나는 적의 유기시체, 이게 군대가 기록한 기록입니다. 153구, M1 소총 1정, 탄약 500발, 일본도, 죽창, 이렇게 되어 있거든요, 그 당시 입수했다고 하는 것이요. 사람이 153명이 죽었는데 총은 한 정이었다는 겁니다. 이게 무슨 얘기입니까? 무장했다고 보기가 어려운 거죠. 그냥 민간인 150여 명이 있는데 그중에 총 든 사람이 1명 있었다, 그 말이거든요. ▶ 김종배 : 그러니까 학살이라고 하는 단어가 안 나올 수가 없는 거죠. ▷ 서해성 : 그렇죠. 물론 이중에 한 명이 총 들고 있었다는 게 좋은 일은 아니죠. 그런다고 해서 그 한 명을 잡기 위해서 152명을 죽였단 얘기지 않습니까? 정말 그런 식으로 무장 상태를 그렇게 비교하는 것 자체가 성립하지 않는다, 이렇게 말해도 과언이 아니겠습니다. ▶ 김종배 : 알겠습니다. 이제 지난주에 이어서 지금까지도 제주에서 벌어졌던 학살 이야기를 쭉 나눠봤는데 이제 학살 일반으로 이야기가 넘어가야 될 것 같습니다. ▷ 서해성 : 아까도 말씀드렸는데 대살이 있었다는 말씀을 드렸고요. 또 하나는 ‘자수 학살’입니다. ▶ 김종배 : 자수 학살은 또 뭐예요?▷ 서해성 : 과거에 시위에 참가한 적이 있다든지, 이를테면 쌀을 준 적이 있었다든지, 그런데 제주도에 3.1기념식 때 수만 명이 참가했기 때문에 거의 모든 사람이 여기에 해당됐습니다. 자수를 하라고 그러는 거예요. 우리가 명단을 다 가지고 있다. 그러면서 자수하라고 그러면 무서우니까 자수를 하는 거예요. ▶ 김종배 : 선처해 줄게, 자수해, 이렇게 되는 거죠. ▷ 서해성 : 그러고는 데리고 가서 죽였다는 겁니다. 또 하나는 ‘함정 토벌’이 있는데요, 함정학살. 무슨 얘기냐면 제2연대 3대대가 주로 이런 일을 했는데, 그 사람들이 산사람처럼 옷을 입고 다니는 겁니다. 그러고는 99식 장총을 메고 마을에 들어가서 ‘동무, 동무’ 하고 악수를 하는 돌아다니는 거예요. 그런데 사람들이 눈치를 챘어요. 그래가지고 공산당이면 나가서 싸우겠다, 이렇게 말했단 말이죠, 동네사람들이. 그럼에도 불구하고 그 사람들을 산사람들도 내통한 걸로 간주해가지고 또 데려가서 죽였습니다. 그러니까 자기 정부 군대가 자기 국민을 향해서 마치 빨치산처럼 옷을 갈아입고서 동네에 들어가서 그 사람들을 유인해낸 다음에 공포에 떨고 있는 사람들을 갖다 죽였다는 건 정말 놀라운 일입니다.▶ 김종배 : 이 정도면 우리가 흔히 아는 ‘묻지마 학살’ 아니에요, 거의? ▷ 서해성 : 저는 ‘묻지마 학살’보다 더 잔인하다고 생각합니다. 묻지마 학살은 차라리 그냥 죽는 거예요. 왜 이런 고통을 먼저 선행시킵니까? 제주도 말에 ‘곰도 무섭고 호랑이도 무섭다’, 이 말이 있습니다. 무슨 얘기냐면 곰은 경찰을 얘기하는 거고 호랑이는 산사람을 얘기하는 겁니다. 그러니까 낮에는 경찰이 무섭고 밤에는 산사람이 무서운데, 왜 낮에 그렇게 공포에 떨고 있는 사람들에게 산사람 복장을 하고 들어가 가지고 ‘동무, 동무’ 악수하고 일부러 그렇게 하고 나서 ‘너 빨갱이다, 여기에 대해서 호응했으니까‘. 아니, 그러면 그렇게 총 들고 사람 죽이는데 그러면 호응 안 하는 사람이 어디 있겠습니까? 그런 일을 왜 우리 군인이 해야 되냐는 거죠. ▶ 김종배 : 지금 우리 군인이라고 말씀을 하셨는데 진압부대 얘기를 해 주세요. ▷ 서해성 : 진압부대가 48년 12월말쯤에 9연대에서 2연대로 교체가 됩니다. 9연대라는 우리나라 국군 9연대는 서귀포에서 만들어진 부대입니다. ▶ 김종배 : 그래요?▷ 서해성 : 부대자체가, 2연대는 대전에 있었던 부대입니다. 그런데 이 2연대가 이제 여순사건을 진압하는 부대입니다. 이해가시죠, 무슨 얘기인지? 14연대를 진압했다, 그 말입니다. 그러니까 여러분이 부대 이름까지 아실 필요는 없겠습니다, 청취자 여러분들께서. 그런데 하여튼 그랬다는 겁니다. 그러니까 이제 당시 정부에서는 9연대를 별로 신뢰하지 못했습니다. ▶ 김종배 : 그러니까 이게 저는 지금 이 말씀 듣다보니까 광주항쟁이 자꾸 떠오르는데, ▷ 서해성 : 맞습니다.▶ 김종배 : 향토사단 있었고, ▷ 서해성 : 맞습니다. 그거하고 똑같습니다.▶ 김종배 : 광주에 경찰이 있었는데 미온적이라는 이유로 뒤로 물려버리고 공수부대 투입했던 거죠.▷ 서해성 : 그렇습니다. 그거하고 똑같습니다.▶ 김종배 : 똑같네.▷ 서해성 : 그런데 이게 조금 더 잔인했던 게 9연대가 그렇게 정부가 믿지 않고 있다는 걸 알고 있었기 때문에 떠나기 전에 많은 사람을 죽이는 겁니다. ▶ 김종배 : 그래요? ▷ 서해성 : 실적을 올리기 위해서, 이게 참 제가 웃어서는 안 되는 방송인데,▶ 김종배 : 실적이라,▷ 서해성 : 너무 어처구니가 없어서 제가 이렇게.. 하여튼 2연대가 오게 되는데 2연대에 서북청년단들이 많이 가담하게 되는 겁니다, 정규적으로. 그래서 물론 9연대도 있었습니다만 2연대에 엘리트 컴퍼니라고 이름을 특별히 붙여줬습니다. 서북청년단 있는 그 중대를, 특별중대,▶ 김종배 : 엘리트 컴퍼니?▷ 서해성 : 특별우수중대라는 거죠. 그래서 그 사람들 거기 받아들였던 것입니다. 그 사람들은 군인들도 취조할 수 있는, 헌병보다 더 높은 위치에 있는 그런 사람들이었습니다. 그 사람들이 주로 우리가 알고 있는 그런 잔인한 일들을 많이 수행한 그런 부대로 생각하시면 자연스럽게 맞을 것 같습니다. 그때 이제 이 사람들이 정부에서는 군부대에 현역으로 6,500명 정도의 서북청년단원들을 집어넣었고요. 경찰에 1,700명을 공급한다는 그런 계획 하에 서북청년단들이 여기에 가담을 해서 일을 했습니다. 그러니까 이분들은 우리가 생각하는 것보다 훨씬 더 가혹하게 아까 했던 그런 일들을 주도하는 일을 했다, 이렇게 생각하시면 될 것 같습니다. ▶ 김종배 : 그러면서 작전변화가 있었던 거죠? 연대를 교체하면서? ▷ 서해성 : 네. 연대를 교체하면서 훨씬 더 잔인한 토벌작전이 있었던 거고요. 서북청년단은 그냥 말씀을 드리면 2연대가 오기 전에는 그냥 개별적 활동 내지는 사병적 성격이 강했다. 이렇게 생각하시면 되는데, 2연대가 올 때 정규군에 편입되었다는 점이 큰 차이가 있습니다. 서북청년단 자체가 정규군이 되었다, 이렇게 생각하시면 되겠습니다.▶ 김종배 : 그러면서 이제 아까 대살부터 시작을 해서 별별 학살의 방법을 다 말씀을 해 주신 거잖아요. ▷ 서해성 : 그렇습니다. 그런데 2연대가 왜 이렇게 공세를 강화하게 되냐면요, 아직 2연대가 제주도 지리 상황을 잘 모르지 않습니까? ▶ 김종배 : 외지에서 왔으니까,▷ 서해성 : 그렇습니다. 그러니까 산에 있는 산사람, 빨치산들이죠. 빨치산들이 이제 49년 1월 12일 날 이제 이 부대를 공격을 가하는 것입니다. 공격을 가하게 되니까, 물론 이제 산에 있는 사람들이 51명이나 죽고, 훨씬 더 많이 죽었습니다, 2시간 접전 끝에. 그런데 그때부터 사태를 완전히 전환해가지고 토벌작전으로 임하게 되는 것입니다. 그런데 그날 참가했던 제주도의 한라산에 있었던 무장대원들이 대략 한 200여명 정도인 것으로 보고 있습니다. 그리고 그날 51명이 현장에서 사망했고, 그렇긴 했습니다만 이게 사실상 마지막 무장 항쟁입니다. 이렇게 하면서 무장 세력은 사실상 소멸하게 되는, 전투 끝에 소멸하게 되는.. ▶ 김종배 : 50몇 년까지 갔다고 했잖아요?▷ 서해성 : 실제로는 50몇 년까지 갔습니다만, 진압은 계속 됐습니다만 실질적으로 무장세력은 이날 사실상 의귀리전투라고 그러는데, 의귀리전투에서 궤멸되었다.▶ 김종배 : 그러면 그 이후부터 몇 년 동안 일방적인 진압, 색출, 학살, ▷ 서해성 : 그것이 진행된 거죠.▶ 김종배 : 일방적으로 진행된 거네? ▷ 서해성 : 그 뒤에 가장 끔찍한 것은 50년이죠. 50년 바로 우리가 알고 있는 보도연맹이라는 거죠. 보도연맹을 통해서 많은 사람들, 별로 관계없는 사람들, 제주도 사람들 중에서 한국전쟁을 전후로 해서 보도연맹에 가입한 사람 한 3만여 명 정도, 이렇게 보도연명에 가입을 시켰고요. 그리고 또 5만 명 정도를 의심스러운 사람들이라고 당시 분류하고 있었습니다. 그러니까 얼마나 많은 사람들이 거기에 의심받는 사람들이었는지 충분히 이해가지 않습니까? 그렇게까지 의심받고 산다는 건 끔찍한 일이 아닌가 하는 생각을 하게 됩니다. ▶ 김종배 : 아까 지난주에도 잠깐 언급을 하셨고 아까도 언급을 하셨는데 ‘제주도에 관광을 갈 때마다’ 이런 말씀을 하셨잖아요. 많은 분들이 제주도에 관광을 가십니다. 가지 말라고 할 이유가 없죠. 가야죠. 다만 알고 가자, 이것 아니겠습니까? ▷ 서해성 : 네. 제주도는 한국에서 아열대 기후를 볼 수 있는 유일한 곳입니다. 그리고 화산이 있어가지고 제주도가 갖고 있는 고유한 지형적 특성, 그리고 바닷물도 깨끗하고 그곳에 가는 것 자체를 나무란다는 건 정말 잘못된 일이죠. ▶ 김종배 : 그러니까 바로 가서 우리가 우연히 어디를 들렀을 때 이곳이 바로 4.3의 역사의 현장이다, 이건 알면 좋잖아요. ▷ 서해성 : 그렇죠. 기왕이면 아는 게 좋죠. 왜 그러냐? 사실 고통스러운 역사를 반복해서 여러분들 괴롭힌다, 이런 얘기가 아니고요. 그래야 이런 일이 반복 안 되기 때문에 그렇다는 것이죠. 그런데 정말 끔찍하게도 가장 많은 사람이 죽은 곳 중에 하나가 제주비행장입니다. ▶ 김종배 : 지금의 비행장? 제주공항?▷ 서해성 : 그렇습니다.▶ 김종배 : 그래요? 당시에도, ▷ 서해성 : 제주공항이었습니다. 제주공항이 확장된 거죠, 지금은요. ▶ 김종배 : 왜 거기서 이렇게 많이 죽었어요?▷ 서해성 : 바로 비행기장, 넓으니까 그쪽으로 사람들 끌고 와서 트럭에 싣고 와서 어쩔 때는 500명을 죽이기도 했습니다. ▶ 김종배 : 한 줄에 세워놓고?▷ 서해성 : 네. 제주공항에 내리시거든 마음속으로 한 번쯤 1초간 혹은 2초간 묵념 한 번 올려주시는 것도 좋겠다. 그래서 다시는 그런 일이 안 생기게끔 했으면 좋겠다는 말씀을 드립니다. ▶ 김종배 : 관광을 가면 모든 분들이 거쳐야만 되는 곳이죠, 공항은. ▷ 서해성 : 그렇죠. 그리고 폭포가 있는 천지연 주차장에서도 많은 사람들이 죽었습니다. 그리고 폭포에 집어던졌다, 이런 기록도 있습니다. 그 얘기는 그만하겠습니다. 너븐숭이 학살, 너븐숭이라는 말이 제주도말로는 넓은 바위, 그런 뜻인데요. 너븐숭이에서는 그곳에 있는 북촌마을인데요. 함덕에 있는 북촌마을인데 그곳에 군인 두 명이 무장대의 공격에 의해서 죽었어요. 그러자 그 동네에 있는 마을을 다 불태웠고 그리고 그 동네 사람들을 남김없이 그날 저녁까지 해서 다 죽이는, 그중에 하나가 한 아이가 어머니가 총에 맞아 돌아가셨는데 그 아이가 어머니 죽은 지 모르고 차가운 젖을 빨고 있었다는 그 기록이 남아있습니다. ▶ 김종배 : 광주항쟁 하면 꼬마가 아버지의 영정사진인가요? 그걸 들고 있는 사진이 지금도 뇌리에 선한데, ▷ 서해성 : 바로 그런 것하고 정말 유사한 거라고 생각하시면 될 것 같고요. 그래서 그 동네는 무남촌이라고 오랫동안 불렀습니다. 남자가 아무도 없으니까요. ▶ 김종배 : 그래서 무남촌? ▷ 서해성 : 네. 그리고 제주도엔 비행장이 당시 두 개 있었습니다, 일제강점기 때. 이게 제주공항이고, 또 하나가 제주공항에 있는 그곳을 부르는 제주도말은 알뜨르라고 합니다. ▶ 김종배 : 알뜨르?▷ 서해성 : 뜨르라는 말은 제주도말로 들판을 얘기합니다. 또 정뜨르라는 곳에 비행장이 있었습니다. 바로 지금 우리 강정 근처에 머지않은 곳인데요. 그 정뜨르가 바로 일본군들이 남경을 공격할 적에 이용했던 경유지 비행장이기도 합니다. ▶ 김종배 : 그래요?▷ 서해성 : 그렇습니다. 지금도 격납고 수십 개 남아있습니다. 정뜨르 옆에 비행장을 관리하다보니까 거기에 탄약고가 있는데 그 탄약고에 큰 두 개의 탄약고가 지금도 남아있습니다. 탄약고가 폭발 때문에 지하에 주로 만들거든요, 땅을 파서요. 그곳에 사람들을 집어넣고 많은 사람들을 죽였습니다. 예비 검속자들, 그러니까 뭡니까. 보도연맹 사람들을 많이 죽였는데 한꺼번에 사람들이 죽었다고 그래서 후손들이 그 무덤의 이름을 붙이기를 ‘백조일손지묘’다. 조상은 백 명인데 왜냐하면 아무도 시신을 찾을 수 없는 거예요. 다 섞여있기 때문에, 그래서 ‘손(孫)은 하나다’라는 그런 것인데.. 그걸 어떻게 찾게 되었냐면 이분들이 죽게 될 줄 알면서 차를 타고 트럭에 실려 가면서 신발을 벗어던지고, 옷가지를 벗어던지고, 그래서 나중에 유족들이 그 옷과, 마치 이게 동화책 한스와 그레텔에 나오는, 다시 집으로 돌아가기 위해서 빵조각을 버려놨다가 다시 돌아가는 것 같은, 그런 기가 막힌 이야기, 그건 동화인데 이건 실제 역사적 사실입니다. 그래서 그곳에 가면 탄약고에, 그 섯알오름 탄약고라고 하는데 그 탄약고에 가면 늘 물이 고여 있습니다. 깊으니까요. 마치 눈물이 그렁그렁한 것처럼 지금도 그렇게 보이는 그런 자리입니다. 혹시 그쪽으로 가시거든 그쪽에 한 번, 요새는 또 이렇게 백조일손지묘 섯알오름 학살터라고 그래서 안내문도 붙어있고 그럽니다. 그러니까 같이 가서 보시면, 한 번 들러봐 주시면 좋겠습니다. ▶ 김종배 : 그런데요, 지금 2연대, 9연대 말씀하셨고 서북청년단, 서청 이야기하고 하셨는데 그 일원 중에는 아파하고 도저히 그 학살에 함께 하지 못하는 인간적인 면모를 갖고 있는 사람도 있었어야 되는 거잖아요. ▷ 서해성 : 있었습니다. ▶ 김종배 : 있었을 것 아닙니까?▷ 서해성 : 네. 한국인은 그렇게 다 나쁜 사람만은 아닙니다. 정말입니다. 저는 이분들을.. 동상을 저는 반대하는 사람입니다. 모든 동상을, 정말 이런 분들을 교과서 같은 데에 실었으면 하는 바람입니다. 첫 번째 정말 뺄 수 없는 분은 초기 9연대장이었던 김익렬 장군입니다. 김익렬 장군은 어떻게 해서든지 학살을 줄여보려고 하다가 쫓겨났습니다. 그분도 중요한 분이고, 또 하나는 서귀포 남원면 신흥리 구장이신 김성홍 구장, 이 양반은 군경들이 누가 이 집에 입산했냐? 도망했냐? 그러면 무조건 모른다고 해서 이 양반 별명이 ‘몰라 구장’입니다. 그래서 그 동네 사람들 안 죽게 되었습니다. 그리고 또 하나는 위미리 출신 순경 강계봉이라는 분인데 이분도 어떻게 해서든지 사람을 안 죽이려고, 경찰인데 애를 썼던 사람이고요. 서북청년단원 중에서도 그런 사람이 있습니다. 서북청년단원 중에 고희준이라는 분은 성산포 지역에 있는 무고한 주민들 죽지 않게 하기 위해서 애를 썼던 사람입니다. 경찰 장성순이라는 분도 자수한 사람들, 그 사람들 죽이라고 그랬는데 죽이지 않고 풀어줬습니다. 그런 분이 있고, 또 한 분은 이북출신인데 이분도 방 경사, 이름이 전하지 않습니다. 방 경사는...▶ 김종배 : 성만 방씨.▷ 서해성 : 네. 방 경사, 성만 전하는데 총으로 사람을 쏴죽이라고 그런 거예요. 갑자기 자기 총기 고장 났다고 그런 거예요. 묻고 싶습니다. 그때 당신 총은 왜 그때 고장 났냐고, 정말 감동적인 순간이거든요, 제가 볼 때는요.▶ 김종배 : 그러니까요.▷ 서해성 : 총이 고장 나서 못 죽인다, 이렇게 말했는데 그중에서 가장 훌륭하신 분 아직 소개 안 했습니다. ▶ 김종배 : 누군데요?▷ 서해성 : 문형순이라는 분입니다. 이분은 경찰입니다. 경찰인데 이제 국민 보도연맹의 예비 검속자들을 수백 명을 죽이라고 명령이 이미 내려와 있었습니다. 계엄사령부에서,▶ 김종배 : 제주출신은 아니죠? ▷ 서해성 : 제주출신 아닙니다. 이 양반은 평안남도 안주출신인데 그런데 이분이 학살명령이 내려왔는데 그 학살명령을 거부합니다. 그리고는 그 문서에 써놨습니다. 나는 부당하므로 불이행한다. ▶ 김종배 : 정면으로 맞섰네요? ▷ 서해성 : 네. 정면으로 맞섰습니다. 수백 명의 학살을 막은 사람입니다. 이분은 정말 훌륭하신 분이죠. 이분이 결혼도 하지 않으셨고 나중에는 그리고는 쌀 배급소에서 쌀을 나눠주다가, 극장에서는 매표원을 하시다가 후손 없이 돌아가셨습니다. 그런데 이분이 어디 출신이냐면 이 양반이 독립군 출신입니다. 신흥무관학교 출신으로 알려지고 있습니다. 저는 그래서 역사가 정말 중요하다고 생각하는 겁니다.▶ 김종배 : 지난주에 제주의 역사를 짧게 짚으면서 민족DNA 이야기를 한 적 있지 않습니까?▷ 서해성 : 네. 부족하다 그랬는데,▶ 김종배 : 지금 광복군 말씀하시니까 확 정리가 되네. ▷ 서해성 : 그 말입니다. 이분이 왜, 이분 일가친척 하나 없는 분이에요, 제주도에요. 그런데 이분은 사람을 죽이는 것을 거부한 거예요. 왜 그랬겠습니까? 이 양반 민족주의자거든요. 그 명령을 거부한 거예요. ▶ 김종배 : 그런데 이런 분들의 역사가 기록이 되어 있습니까? ▷ 서해성 : 네. 제주평화공원에 이분의 사진도 기록이 되어 있고 한 장 남아있습니다. 있긴 한데 그보다는 훨씬 더 널리 알려졌으면 좋겠습니다.▶ 김종배 : 그런데 정반대로 2945님이 지금 문자 주셨는데 그때의 가해자들 있지 않습니까? ‘지금이라도 찾아서 명단 공개해야 한다고 봅니다’라고 의견 주셨는데 어떻게 생각하세요? ▷ 서해성 : 제일 큰 가해자는 그 당시 윌리엄 딘이죠. 딘 장군, 당시 군정장관이었고요. 제주도 와서 직접 이런 전투명령을 지위했죠. 그러다 나중에 미국으로 건너갔거든요. 그러다 한국전쟁이 일어나자 미국 24사단장으로 다시 한국에 왔습니다. 그랬다가 인민군에게 체포되어서 포로생활 2년을 했죠. ▶ 김종배 : 그랬어요?▷ 서해성 : 유명한 딘 장군이지 않습니까? 그러니까 그런 양반부터 포함해서 당시 제주도 군정장관은 맨스필드라는 사람이었습니다. 그런 사람들이 상층이었고, 우리 초대 대통령 이승만 대통령도 자유롭지 못하고요. 조병옥, 이런 사람들도 거기 자유롭지 못하고 수많은 사람들이 있죠, 사실은요. 그러니까 이런 겁니다. 산사람들 토벌한 것에 이의를 다는 건 추호도 없습니다. 아까 전 말씀드렸지만 어떻게 해서 대살을 합니까? 어떻게 해서 ‘관광 총살’을 합니까? 이게 인간이 할 수 있는 일이 아니지 않습니까? 그걸 학살이 아니라고 부인하는 사람들은 정말 그래서는 안 되는 겁니다. ▶ 김종배 : 유튜브 라이브로 김정원 씨가 ‘4.3사건 우리 아이들도 알 수 있게 교과서에 비중 있게 넣어야 될 것 같아요’라는 의견을 주셨고요.▷ 서해성 : 특히 제가 꼭 하고 싶은 것은 이런 겁니다. 의인들, 이렇게 그때 학살을 저지하려고 자기 인생을 걸었던, 그 당시 학살 거부하면요, 그 사람 죽을 수 있었습니다. ▶ 김종배 : 우리가 지금 들을 때는 어찌 보면 인간으로서 당연히 해야 될 도리를 한 것 같지만 그때는 목숨 내놓고 하는 거잖아요.▷ 서해성 : 목숨 내놓은 겁니다. 제가 그 말입니다. 이런 분들에 대해서 사회가 기록하고 이런 분들 상도 만들었으면 좋겠고 내부고발자보다 훨씬 더 이 양반들 센 사람이거든요. 실제로 목숨이 끊어질 수 있는 그런 상황이었고,▶ 김종배 : 말 그대로 목숨 걸고 저항한 분들, 한 마디로,▷ 서해성 : 그렇습니다. 그런데 이 양반이 아까 말씀드렸던 불이행한다고 하는 그게, 그 문서가 지금 남아있습니다. ▶ 김종배 : 이런 건 보관해야 돼요. ▷ 서해성 : 이게 인권, 휴머니티, 인권 개념에서는 이런 게 사실은 국보급인거죠. ▶ 김종배 : 그렇죠. 꼭 보관해야 돼요. 또 시간이 다 됐는데 이제 마무리를 해야 될 것 같습니다. ▷ 서해성 : 그렇게 하겠습니다. 당시는 4.3학살은 미군정체제에서부터 시작되었습니다. 그리고 친일경찰, 친일군인, 서북청년회, 이런 사람들이 저지른 일인데요. 이건 인간성의 한계를 넘는 폭력을 행사했습니다. 야수보다 못한 일했다, 이런 말하면 안 됩니다. 야수는 이런 일 안 합니다. 그 거대한 죽음과 죽음 사이에 정말 인간으로서는 수용할 수 없는 역륜, 윤리를 거스르는 일이 있었습니다. 이건 기록해야 합니다. 교과서 같은 데에 기록해야 합니다. 왜냐하면 그래야 다시 이런 일이 안 생기기 때문입니다. 단지 광기라고 이렇게 설명해서는 저는 그런 말을 거부합니다. 그러니까 제주도 4.3이 뭐냐? 아직도 이렇게 말할 수 있습니다. 세상에는 죽는 죽음이 있고 죽지 못하는 죽음이 있습니다. 제주도 4.3은 아직 죽지 못한 죽음입니다. 문재인 대통령께서 그나마 조금 위로되는 그런 말씀을 해 주셔서 얼마나 다행인지 모르겠습니다. 학살은 학살을 잊어버리면 학살은 다시 학살을 오마주합니다. 그러니까 그걸 끊어내기 위해서라도 학살이라는 것은 이렇게 한 줄로 줄여서 말할 수 있습니다. 학살은 죽음을 숭배하는 가장 반종교적인 종교행위입니다. 그렇게 끊어내기 위해서라도 4.3학살의 역사기록을 사람들이 꼭 알아야만 되겠다. 사실 4.3학살에 대한 것들이 왜 제주도에만 그 기념관이 있어야 되는지 사실 잘 모르겠습니다. 서울 어디엔가도 있어서 이런 일이 다시는 안 생기는 그런 거울로 삼았으면 좋겠다는 생각을 해보게 됩니다. ▶ 김종배 : 7109님도 바로 그런 의견의 문자를 주셨는데, 아픈 역사를 기억해야 다시 반복되지 않으리라 봅니다. 널리 알리고 기억해야 할 것 같습니다, 이런 의견을 주셨는데 100% 공감을 하면서 박학다설 마무리하겠습니다. 서해성 작가와 함께 했습니다. 고맙습니다. ▷ 서해성 : 고맙습니다. 기사제보 및 보도자료 제공 tbs3@naver.com / copyrightⓒ tbs. 무단전재 &amp; 재배포 금지 더 많은 기사 보기 정치 추천 기사 인기 기사 1 출근길 기온 '뚝' 추운 날씨…오늘 아침 전국 5~ ... 2 전국에 비 소식…쌀쌀한 날씨 이어져 3 무주 주택서 어머니 생일 맞아 모였던 일가족 5명 숨져 4 경기도, 7호선 연장 도봉산~옥정 완공 1년 연기 검토 5 러시아, 우크라에 미사일 75발 포격…최소 5명 사망 6 연휴 마지막 날…서울 광화문·용산 등 도심서 대규모 ... 7 최근 5년여 간 서울 경찰 77명 음주운전 징계…대 ... 8 [신장개업] 정재원 국민대 유라시아학과 교수, “러 ... 9 오늘 법사위 등 10개 상임위 국감…'유병호 문자' ... 10 서울 화곡·인천 부평, '전세사기' 집중 발생 개인정보처리방침  l 영상정보처리기기방침  l 사이버 감사실  l 저작권 정책  l 광고 • 협찬단가표  l 시청자 위원회  l 정보공개 03909 서울특별시 마포구 매봉산로 31 S-PLEX CENTER | 문의전화 : 02-311-5114(ARS)Copyright © Since 2020 Seoul Media Foundation TBS. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>제주도 서귀포서 열기구 추락…韓 관광객 탑승자 1명 중상·11명 경상 &lt; 사건.사고 &lt; 사회 &lt; 기사본문 - 중부일보 - 경기·인천의 든든한 친구 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 경기·인천 뉴스의 중심 로그인 회원가입 2022-10-11 09:06 (화) 지면서비스 전체메뉴 버튼 경기 가평군 고양시 과천시 광명시 광주시 구리시 군포시 김포시 남양주시 동두천시 부천시 성남시 수원시 시흥시 안산시 안성시 안양시 양주시 양평군 여주시 연천군 오산시 용인시 의왕시 의정부시 이천시 파주시 평택시 포천시 하남시 화성시 지역종합 자치의정 북부종합 인천 정치 의정 경제 사회 선거 계양구 미추홀구 남동구 동구 부평구 서구 연수구 중구 강화군 옹진군 인천종합 사람들 사람들 인사 알림 부고 새얼굴 정치 지방행정 지방의정 선거 대통령실 행정·자치 국회·정당 외교·국방·북한 정치일반 20대 대선 경제 경제종합 건설.부동산 금융.재태크.증권 소비자.유통 일자리&amp;창업 IT.과학 자동차 중소기업 사회 사건.사고 교육 법원·검찰·경찰 노동·복지 생활·환경 날씨정보 사회종합 문화 문화종합 공연.전시 신간 스포츠 야구 축구 농구 배구 골프 종목별경기 스포츠일반 6·1 지방선거 경기도 인천 포토 포토뉴스 만평 꼬투리 그래픽뉴스 테마화보 카드뉴스 다문화뉴스 English(영어) 中国语(Chinese) Tiếng Việt(Vietnamese) Other Languages 다문화人Story 기획취재 라이프 레저·여행 푸드스토리 건강·의학 오피니언 눈여겨 볼만한 개발정보 TV중부 경기도맛집 연중기획 '지방분권' 시대 끝까지 간다 팩트인사이드 지방선거 누가 뛰나 지면보기 모바일보기 뉴스종합 정치 경제 사회 문화 스포츠 국제 지역 경기 사람들 인천 오피니언 라이프 기획취재 포토 검색하기 기사검색 검색 Trend news 1 오산시의회, 제272회 제1차 정례회 개회 2 1기 신도시 연합회 "안전진단 면제·임기내 착공 약속하라" 3 제1회 중부일보 사장배 유소년 축구대회 4 검찰, 이재명 관련 의혹 전방위 수사…소환 조사 임박했나 5 [국감인물] 국민의힘 국토교통위 김선교 의원 "이재명·은수미 배임행위" 저격 6 [현장 24시] "일조·조망권 침해" VS "적법한 재산권 행사"…북수원패션아울렛 재건축 갈등 7 "8호선 의정부연장 조속히 해야"…김민철, 국정감사서 교통인프라 개선 촉구 8 [중부일보 사장배 유소년축구대회] 6학년 리그 우승 김지원 인천유나이티드 미추홀지부 감독 "아이들이 축구에 대한 흥미 잃지 않도록 노력" 9 공사비 오르는데 미분양 급증…경기도 건설업계 '죽을 맛' 10 '블랙, 세상의 빛을 담다'…의정부 BMF 21~22일 시청 앞 광장서 개최 ISSUE PICK 지역개발 우리동네 집값·땅값은 TV중부 뉴스를 본다 교육이 미래다 교육의 현장속으로 팩트인사이드 오직 사실! 다문화뉴스 우리 곁에 사회 사건.사고 교육 법원·검찰·경찰 노동·복지 생활·환경 날씨정보 사회종합 더보기 본문영역 서울 12℃  맑음 미세먼지 경기 14℃  맑음 미세먼지 인천 14℃  맑음 미세먼지 이전 기사보기 다음 기사보기 제주도 서귀포서 열기구 추락…韓 관광객 탑승자 1명 중상·11명 경상 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회 사건.사고 제주도 서귀포서 열기구 추락…韓 관광객 탑승자 1명 중상·11명 경상 기자명 홍지예 입력 2018.04.12 09:11 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 네이버밴드(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 네이버밴드(으)로 기사보내기 닫기 ▲ 연합TV 캡처 제주도 서귀포에서 열기구가 추락해 탑승자 12명이 다쳤다.제주 동부소방서는 12일 "이날 오전 8시 10분쯤 제주 서귀포시 남원읍 신흥리 물영아리 오름 북쪽에서 열기구가 떨어져 12명이 다쳤다"고 밝혔다.부상자 가운데 1명은 중상이고 나머지 11명은 경상인 것으로 알려졌다.추락 열기구에는 12명이 탑승해 있었고 모두 자력으로 탈출했으면 이날 사고는 고사리를 채취하던 사람이 발견해 소방당국에 신고했다.소방당국은 현재 사고를 수습하는 한편 원인을 조사 중이다. 홍지예기자/ 페이스북 지면신문보기 다른기사 보기 홍지예 기자 hjy@joongboo.com 저작권자 © 중부일보 - 경기·인천의 든든한 친구 무단전재 및 재배포 금지 로그인하면 내지역 뉴스와 원본 지면을 보실 수 있습니다. 회원가입 로그인 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 많이 본 기사 1 오산시의회, 제272회 제1차 정례회 개회 2 1기 신도시 연합회 "안전진단 면제·임기내 착공 약속하라" 3 제1회 중부일보 사장배 유소년 축구대회 4 검찰, 이재명 관련 의혹 전방위 수사…소환 조사 임박했나 5 [국감인물] 국민의힘 국토교통위 김선교 의원 "이재명·은수미 배임행위" 저격 PREMIUM로컬프리미엄 고양시 인천동구의회 인천동구 과천시 광명시 안양시 파주시 화성시 안성시 양평군 오산시 의정부시 여주시 안산시 이천시 의왕시 군포시 평택시 구리시 용인시 광주시 눈여겨 볼만한 개발정보 GTX-B ‘인천대~마석’ 민자구간, 2024년 착공 인천시, 재개발사업 희망지 공모…10개소 이내 구역지정 인천 2호선 김포 감정동·걸포북변·시네폴리스 3개역 신설 검토 오늘의 헤드라인 고양 탄현동·인천 부평구 등 전세보증사고 속출 올해 들어 고양 탄현동·인천 부평구·서울 화곡동 등지에서 집주인이 세입자의 전세보증금을 돌려주지 못한 전세 보증 사고가 집중됐던 것으로 나타났다.특히 고양 탄현에서 발생한 전세 보... GTX-B ‘인천대~마석’ 민자구간, 2024년 착공 "실효성 없는 학생 자가진단 앱 언제까지 해야 하나" 불만 폭증 부담스런 점심시간…김밥 1줄 3천원 시대 로컬 인사이드 경기도 유물여행 한겹 한겹 덧칠 걷어내니 호성공신의 위엄이 돌아왔다 우리동네 책방여행 시 창작회·음악회 함께 즐기며 '생태주의 공유'…용인 '반달서림' 인문기행-경기도의 전통사찰 꺽정불 찾아 수능 대박 기원해볼까…안성 칠장사 하단영역 경기·인천의 든든한 친구 뉴스 지역종합 오피니언 라이프 기획취재 포토 TV중부 매체정보 경기도 수원시 팔달구 권선로 733 (인계동) 중부일보 문의전화 : 031-230-2114 팩스 : 031-233-3010~1 인천본사 : 인천광역시 남동구 구월남로 148 타워플러스 603호 TEL : 032) 437-0081 FAX : 032) 437-0085 중부일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 중부일보 - 경기·인천의 든든한 친구. All rights reserved. mail to webmaster@joongboo.com 위로 전체메뉴 경기 가평군 고양시 과천시 광명시 광주시 구리시 군포시 김포시 남양주시 동두천시 부천시 성남시 수원시 시흥시 안산시 안성시 안양시 양주시 양평군 여주시 연천군 오산시 용인시 의왕시 의정부시 이천시 파주시 평택시 포천시 하남시 화성시 지역종합 자치의정 북부종합 인천 정치 의정 경제 사회 선거 계양구 미추홀구 남동구 동구 부평구 서구 연수구 중구 강화군 옹진군 인천종합 사람들 사람들 인사 알림 부고 새얼굴 정치 지방행정 지방의정 선거 대통령실 행정·자치 국회·정당 외교·국방·북한 정치일반 20대 대선 경제 경제종합 건설.부동산 금융.재태크.증권 소비자.유통 일자리&amp;창업 IT.과학 자동차 중소기업 사회 사건.사고 교육 법원·검찰·경찰 노동·복지 생활·환경 날씨정보 사회종합 문화 문화종합 공연.전시 신간 오늘의운세 별자리운세 스포츠 야구 축구 농구 배구 골프 종목별경기 스포츠일반 6·1 지방선거 경기도 인천 포토 포토뉴스 만평 꼬투리 그래픽뉴스 테마화보 카드뉴스 다문화뉴스 English(영어) 中国语(Chinese) Tiếng Việt(Vietnamese) Other Languages 다문화人Story 기획취재 라이프 레저·여행 푸드스토리 건강·의학 오피니언 눈여겨 볼만한 개발정보 TV중부 경기도맛집 연중기획 '지방분권' 시대 끝까지 간다 팩트인사이드 지방선거 누가 뛰나 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도에서 관광용 열기구가 추락했다 &lt; 뉴스&amp;이슈 &lt; 기사본문 - 허프포스트코리아 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체기사보기 facebook twitter kakaostory youtube instagram 검색버튼 검색 검색 검색닫기 Login Join 글로벌 뉴스&amp;이슈 보이스 라이프 엔터테인먼트 허프트렌드 허프피디아 닫기 전체기사 글로벌 전체 미국 아시아 유럽 뉴스&amp;이슈 전체 정치 경제 사회 보이스 전체 여성 성소수자 장애인 동물 환경 라이프 전체 섹스&amp;건강 테크&amp;머니 여행 음식 스타일 코로나19 엔터테인먼트 전체 연예인&amp;셀럽 TV 영화 OTT 유튜브 음악 K-POP 공연&amp;미술 스포트라이트 허프트렌드 허프피디아 전체 반려동물 여행과 사람 메타버스&amp;NFT AI해외주식 기사검색 검색 독자제보 약관 및 정책 본문영역 이전 기사보기 다음 기사보기 제주도에서 관광용 열기구가 추락했다 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 뉴스&amp;이슈 제주도에서 관광용 열기구가 추락했다 열기구 조종사 김모씨가 병원으로 옮겨졌지만 끝내 사망했다. 김성환 입력 2018.04.12 10:17 수정 2018.04.12 10:31 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 다른 공유 찾기 ⓒ뉴스1		 제주도에서 관광용 열기구가 추락했다. 이 사고로 조종사 김모씨가 크게 다쳐 병원으로 이송됐다. 연합뉴스 등이 제주동부소방서 발표를 인용해 보도한 내용을 보면, 4월12일 오전 8시 11분께 제주 서귀포시 남원읍 신흥리 물영아리 오름 북쪽 상공에서 조종사와 승객 등 13명이 탄 열기구가 추락했다. 조선일보는 “제주소방본부에 따르면 이날 오전 오전 7시 35분쯤 이륙해 30여분간 인근을 비행하던 열기구가 오전 8시 10분쯤 남원읍 신흥리 산 80번지 인근에 착륙하던 중, 나무에 걸려 뒤집혔다”라고 보도했다. 광고 허프포스트코리아 오리지널 비디오 이 사고로 조종사 김모씨가 크게 다쳤다. 김씨는 의식이 없는 상태로 서귀포의료원으로 옮겨졌지만, 끝내 숨졌다. 나머지 승객들은 경상을 입은 것으로 알려졌다. ⓒ뉴스1		 이 열기구는 제주에 있는 항공레저업체 A사는 2017년 5월부터 영업을 시작한 상품이다. 노컷뉴스에 따르면, 이 상품은 열기구를 타고 구좌읍을 출발해 성산일출봉과 표선면 일대를 1시간 가량 돌아보는 것으로 알려져 있다. 열기구에는 최대 17명이 탈 수 있다. 한 탑승객이 뉴스1과 한 인터뷰를 보면 “착륙 도중 바람이 강하게 불면서 열기구가 흔들리더니 떨어졌다”고 말했다. 경찰과 소방당국은 정확한 사고 원인에 대해 조사를 벌일 예정이다. SCRAP SHARE 저작권자 © 허프포스트코리아 무단전재 및 재배포 금지 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 구독 및 팔로우 주요 기사와 블로그를 매일 이메일로 받으세요. 뉴스레터에는 맞춤형 콘텐츠나 광고가 들어갈 수 있습니다. 더 알아보기 뉴스레터 구독신청 이메일 주소를 정확히 입력해 주세요 Facebook Twitter 오늘의 인기기사 안철수 국민의힘 의원은 유승민과 나경원에게 당 대표에 출마하라고 권유했고, 이를 보던 홍준표는 뼈 때리는 일침을 가했다 영화 '라스베가스를 떠나며' 만든 니콜라스 케이지와 감독 마이클 피기스는 흥행 대박 나고도 한 푼도 못 받았다 (ft.반응) "기독교 신자라는 공통점" 배우 선우은숙이 4살 연하 아나운서 유영재와 결혼한다 "한밤중 잠에서 깨 화장실에 가고 싶다면?" 숙면을 위해 잠자기 전에 하지 말아야 하는 꿀잠 팁을 방출한다 (연구 결과) 우상호 더불어민주당 의원은 윤석열 대통령의 조문 취소에 대해 "이XX', '저XX' 하는 사람한테 어떻게 감히 건의하겠나"라고 말했다 김성환 연관 검색어 클릭하면 연관된 모든 기사를 볼 수 있습니다 #뉴스 #제주 #추락 #제주소방본부 #제주관광 #열기구 하단영역 하단메뉴 회사소개 수시채용 독자제보 광고상품 오시는 길 약관 및 정책 매체정보 서울특별시 마포구 토정로 310 (한국카본빌딩) 4층 대표전화 : 02-6958-9012 팩스 : 070-8299-5157 청소년보호책임자 : 신철 법인명 : 허프포스트코리아(유) 제호 : 허프포스트코리아 등록번호 : 서울 아 03003 등록일 : 2014-02-10 발행·편집인 : 최태형 편집장 : 강나연 Copyright © 2022 허프포스트코리아. All rights reserved. mail to ps@nativelab.co.kr / huffkorea@gmail.com 위로 전체메뉴 전체기사 글로벌 전체 미국 아시아 유럽 뉴스&amp;이슈 전체 정치 경제 사회 보이스 전체 여성 성소수자 장애인 동물 환경 라이프 전체 섹스&amp;건강 테크&amp;머니 여행 음식 스타일 코로나19 엔터테인먼트 전체 연예인&amp;셀럽 TV 영화 OTT 유튜브 음악 K-POP 공연&amp;미술 스포트라이트 허프피디아 전체 반려동물 여행과 사람 메타버스&amp;NFT AI해외주식 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>미디어제주 × 전체기사 뉴스 전체 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 전체 생생스포츠현장 박물관, 그리고 제주 이야기 이사람 이주민, 그들을 말한다 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 기획특집 미디어누리 전체 어린이기자 시민기자 청소년기자 오피니언 전체 미디어窓 미디어칼럼 건강칼럼 기고 미디어TV 전체 영상뉴스 UCC동영상콘테스트 유치부축구대회 시정가이드 전체 제주시 서귀포시 최종편집 2022-10-11 12:33 (화) 로그인 회원가입 모바일웹 전체 뉴스 전체기사 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 박물관, 그리고 제주 이야기 이사람 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 미디어누리 어린이기자 시민기자 기사쓰기 오피니언 미디어窓 미디어칼럼 건강칼럼 기고 행사 유치부 축구대회 아름다운 동행 기사검색 검색 S2N2 이전 다음 제주도관광협회, 1~3월 베스트 관광인 선정 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 경제 제주도관광협회, 1~3월 베스트 관광인 선정 김형훈 기자 승인 2018.04.13 17:15 댓글 1 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주도관광협회가 지난 12일 제주웰컴센터에서 1~3월 베스트관광인을 한꺼번에 선정해 선정패를 전달했다. 1월의 베스트 관광인은 비체올린 강정훈 대표. 그는 국내 최초로 곶자왈 원시림 속에 카약과 캠핑 등을 접목한 힐링 카약 파크를 구성, 제주도를 지속 가능한 세계적인 관광지로 만들기 위해 힘쓰는 점이 좋은 평가를 받았다. 2월의 베스트 관광인은 에버리스 골프리조트 강권철 대리. 그는 한결같은 친절서비스 정신으로 제주를 방문하는 내·외국인 관광객들에게 감동을 제공, 제주 관광 이미지 향상에 노력하고 있다는 점을 인정받았다. 3월의 베스트 관광인은 빅마켓 안영훈 과장. 그는 고객이 우선이라는 이념을 최우선 가치로 두고 관광객들에게 잊지 못할 추억을 간직하도록 노력했다는 평가이다. 저작권자 © 미디어제주 무단전재 및 재배포 금지 김형훈 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 1 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 지그네들끼리 행사 2018-04-13 17:38:57 더보기 삭제하기 제식구 평가하는 게 먼 의미있을까 ㅎㅎㅎ 관광협회가 기관도 아니고 웃기는 쇼들 그만했으면 ㅋㅋ 이런 기사말고 사회 기사 써주세요. 답글쓰기 2 0 실시간 댓글 동굴 몇개 살리자구 하수처리장 이전하면 그돈은 니그들이 낼거냐 일본 후쿠시마 원전페수 방수하는데가서 아주 죽 욱 살면서 대모혀라 실제 월정리 주민들은 그간 동굴과 하수처리장 문제로 골머리를 앓고 있어 새로운 동굴이 발견되면 보호구역 확대에 의한 토지 수용이나 제한으로 재산상 손해가 생길까봐 동굴이 없는게 오히려 좋겠다는 분들도 계십니다. 월정리가 동굴마을로 지정되어 제한만 할께 아니라 하수처리장 철거로 완전한 동굴보호 마을의 역할을 하게해서 마을에 실질적 도움이 될 수 있는 조처도 취해져야 합니다 오늘 강순석 제주지질연구소장님의 새로운 본류 동굴 존재 할 수 있다는 기자회견은 다년간 지질연구하시면서 현장에서 느끼는 전문가의 촉이 있으신것 같습니다. 제주의회 정밀탐사 촉구도 있었으니 하수처리장 존재에 영향을 받지 않을 학술적 가치에 중점인 정밀 지질 탐사가 다시 이루어지기를 기대해 봅니다. 2009년 이후 탐사기법도 더욱 발전 했으니 더 정밀한 탐사가 가능할 것 입니다. 월정리는 만장굴. 사굴과도 마을 경계상에 위치해 있고 그 밑으로 용천굴. 당처물 동굴. 남지미 동굴이 계속 발견되었는데 올 6월에는 제주 의회에서도 정밀 탐사가 필요하다는 의견이 있었습니다만 구체적 탐사 움직임은 보이지 않는것 같습니다 2007년 탐사 ~2009년 보고서는 매우 과학적 동굴탐사인 지표투과 레이더 탐사도 했다지만 그 당시 현장을 지켜본 마을분 증언에 의하면 하수처리장 근처로는 탐사를 회피하는 듯 했다고도 합니다. 지금까지 과정을 보면 보호구역도 하수처리장 경계로 갑자기 2구역에서 4구역으로 완화되게 설정되어 있습니다. 문제의 하수처리장 보호를 위해 안간힘을 써 온것 같은데 하수처리장 철거가 되어야 동굴 탐사도 객관적으로 학술적으로 실제적으로 가능한게 아닌가 의구심을 가져 봅니다 가장 많이 읽은 기사 1제주시, 청년월세 월 20만원씩 최대 12개월 지원 2일상의 배려, 성숙된 시민의식 빛낸다. 3서귀포시, 올해 교통유발부담금 21억 원 부과 4‘2022 Trans Jeju 국제 트레일러닝대회’ 성황리에 폐막 5코로나19 이후 큰 폭 증가 제주 실업자수, 점차 회복세 6&lt;정정보도&gt; 해수부 규정 어긴 영상 공모전 입상 의혹, 사실 아닌 것으로 확인 7최고가 다투는 제주 휘발유 값, 제주도 2차 민간조사 돌입 SPONSORED 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 중앙로 270-1 5층(이도이동, 백두빌딩) 대표전화 : 064-725-3456 팩스 : 064-725-3458 명칭 : (주) 미디어제주 제호 : 미디어제주 등록번호 : 제주 아 01003 등록일 : 2005-10-17 발행인 : 고승영 편집인 : 고승영 청소년보호책임자 : 고승영 미디어제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 미디어제주. All rights reserved. mail to mediajeju@mediajeju.com 위로</t>
+  </si>
+  <si>
+    <t>제주도, 하노이 관광시장 박람회서 관광·문화 소개 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, 하노이 관광시장 박람회서 관광·문화 소개 등록 2018.04.02 10:47:01 작게 크게 【제주=뉴시스】 지난 3월 29일부터 4월1일까지 베트남 하노이 국제전시센터에서 개최된 베트남 세계관광시장박람회:VITM) 장에 설치된 제주관광홍보 부스. &lt;제주도청 제공&gt;【제주=뉴시스】강정만 기자 = 제주특별자치도는 지난 3월29일부터 4월1일까지 베트남 하노이에서 열린 베트남 세계관광시장박람회, VITM)에 참가해 업계와 소비자를 대상으로 홍보활동을 벌였다고 2일 밝혔다. 하노이 국제전시센터에서 개최된 이 박람회에는 25개국 650개 업체가 참가해 505개 부스를 설치했고, 6만5000명의 관람객이 다녀간으로 알려졌다. 제주에서는 도와 제주관광협회, 도내 8개 관광사업체가 참가했다. 이 박람회장에서 현학수 도 관광정책과장은 베트남 호치민 방송국과 여행 잡지인 원더러스트 팁스(Wanduerlust Tips)와 인터뷰를 통해 제주관광 홍보부스 운영상황과 제주관광의 매력을 베트남 소비자들에게 알렸다. 제주도의 다채로운 봄 축제와 마라톤 대회 등 대형이벤트 행사, 4·3 70주년 제주방문의 해를 맞아 다크투어리즘과 제주해녀문화 등 제주만의 차별화된 관광자원과 독특한 문화를 소개했다. 현 과장은 응웬티빅반(Nguyen Thi Bich Van) 베트남 여성 박물관장과의 면담을 통해 '해녀문화를 비롯한 제주의 다양한 문화'를 소개하기도 했다. 【제주=뉴시스】  현학수 제주도 관광정책과장이 지난 3월 29일부터 4월1일까지 베트남 하노이 국제전시센터에서 개최된 베트남 세계관광시장박람회:VITM) 장에 설치된 제주관광홍보 부스에서 호치민 방송과 인터뷰 하고 있다. &lt;제주도청 제공&gt; 응웬티빅반 베트남 여성 박물관장은 "베트남과 제주 간의 상호 교류가 활발하게 진행되기를 희망한다"며 "여성 박물관을 활용한 제주의 관광 문화를 알릴 수 있는 전시와 공연활동 등 세부적인 논의를 하자"고 했다고 도가 밝혔다. kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 세종시민단체 "상병헌 시의장 성추행 사과 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 "국가기관 자격시험 화장실 이용 후 재입실 금지...인권침해" 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 세종시민단체 "상병헌 시의장 성추행 사과 요구" 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 울산 남구, 일반음식점 2000곳에 위생모 지원 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '시즌 5승' 박민지, 세계랭킹 2계단 상승한 16위 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 610월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 7軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도, 61개소 관광개발사업․투자진흥지구...지역경제 지속성장 견인 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 61개소 관광개발사업․투자진흥지구...지역경제 지속성장 견인 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, 61개소 관광개발사업․투자진흥지구...지역경제 지속성장 견인 기자명 고병수 기자 입력 2018.04.13 11:25 수정 2018.04.13 11:28 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 투자, 고용, 지역업체참여 상황 점검결과 道 홈페이지 공표 (제주=국제뉴스) 고병수 기자 = 제주특별자치도는 관광개발사업 및 투자진흥지구 61개소에 대한 투자․고용․지역업체 참여 실적을 13일 공표한다고 밝혔다.실적 공표는 관광개발사업 승인과 투자진흥지구 지정 사업에 대한 도민 궁금증을 해소하고, 투자자에게는 개발사업을 정상 추진할 수 있는 책임감 부여로 실질적인 투자와 고용창출을 이끌어내어 지역경제를 견인하기 위해 지난해부터 실시해 오고 있다.개발사업장은 37개소(관광개발 20, 유원지 17), 투자진흥지구은 24개소(개발사업 중복 20) 등이다.도에 따르면 지난해 말 기준으로 추진상황을 분석한 결과 전체 61개 사업장 중 준공 완료되어 운영 중인 24개 사업장인 경우 투자 및 고용실적은 계획대비 100%를 초과했다. 지역업체 참여도 계획대비 62%의 실적을 나타나고 있는 것으로 집계됐다. 대규모관광개발사업장과 지역경제 연계시스템이 지난 2015년 1월부터 시행되고 있는 점을 감안하면 매우 양호한 실적을 보이고 있는 것으로 나타나고 있다.  일부시설 준공 되어 운영 중인 27개 사업장인 경우 계획 대비 투자는 8조4723억 원(59%), 고용은 8130명(36%)의 실적을 보이고 있다. 또한 신화역사공원, 헬스케어타운 등 대형공사장 공사 진척도에 따라 실적 증가가 전망되고 있다.그러나 공사중 또는 투자자본 확보곤란 등으로 일시 공사 중단된 예래(소송 공사중단), 팜파스, 동물테마파크, 백통신원, 색달동농어촌 등 10개 사업장들은 실적이 미흡한 실정이다.  전체사업장 61개소에 대한 투자 및 고용현황을 보면 계획대비 투자는 9조9894억원(51%)을 차지하고 있으며. 고용은 1만1281명(30.4%)으로 이중 도민은 8822명(78.2%)이며 지역업체 참여 실적은 2조2516억원(57.2%)으로 나타나고 있다.  道는 계획대비 투자․고용실적이 다소 낮게 나오는 이유는 계획자체가공사완료 후 투자와 고용 목표를 제시한 것으로 현재 대부분의 사업장이 공사 진행 중인 것에 기인하는 것으로 판단된다.투자유치과 관계자는 "앞으로 대형사업장 제주헬스케어타운 등 사드에 따른 중국 자본 유입이 중단된 사업장들이 해외 직접투자 규제가 풀릴 경우 현재보다 투자실적과 고용현황이 개선될 것"으로 전망했다. 또한 "지속적인 관리를 통해 사업기간 내에 계획된 투자가 이루어져 개발사업 효과가 도민사회에 스며들 수 있도록 사업장에 대한 관리를 철저히 해 나갈 계획"이라고 덧붙였다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도서 불법관광알선 일당 적발 &lt; 관광 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도서 불법관광알선 일당 적발 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 관광 제주도서 불법관광알선 일당 적발 기자명 조문호 기자 입력 2018.04.05 17:25 수정 2018.04.05 17:30 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 5명이 중국인 관광객 대상 무등록 여행업임차한 차량으로 유상운송까지 하다 덜미 제주도 자치경찰단(단장 나승권)은 중국인 관광객 등 외국인을 상대로 관광가이드 불법 영업을 한 일당 5명을 적발했다고 5일 밝혔다. 사진은 적발현장. 사진=자치경찰단.중국인 관광객 등 외국인을 상대로 관광가이드 불법 영업을 한 일당이 적발됐다.제주도 자치경찰단(단장 나승권)은 지난 3월 한달 간 중국 여행사이트 씨트립(ctrip)과 모바일메신저 위쳇(Wechat) 등을 이용해 모객한 중국인 관광객 등 외국인을 상대로 임차한 자가용을 이용, 자가용유상운송 및 무등록여행업을 한 무자격가이드 A씨 등 5명을 적발해 형사 입건하고 수사 중에 있다고 5일 밝혔다.자치경찰단에 따르면 A씨는 최근 중국과의 사드보복 해제와 맞물려 제주를 찾는 개별 관광객 등 중국인 관광객들이 증가함에 따라, 인터넷 여행 사이트에서 모객한 외국인 관광객을 임차한 승합차량을 이용해 가이드 활동을 펼쳤다.도내 중국 관련 커뮤니티에서 만난 이들은 중국인 1명과 한국인 등이 섞여 범행을 저지른 것으로 나타났다.도내 관광 체류일정에 맞춰 관광객이 원하는 관광지로 데려다준 다음 입장권을 대신 구매하고 사진촬영, 관광지 소개 및 안내해 주는 등 관광편의를 제공해 그 댓가를 받은 것으로 조사됐다.제주도 자치경찰단(단장 나승권)은 중국인 관광객 등 외국인을 상대로 관광가이드 불법 영업을 한 일당 5명을 적발했다고 5일 밝혔다. 사진은 적발현장. 사진=자치경찰단.A씨는 모객한 외국인 관광객들에게 만일에 경찰에 단속될 경우에 자신과 친구관계라고 얘기해달라고 부탁하고, B씨는 경찰에 적발되면 채팅내용 등 휴대폰 대화내용을 모두 삭제하라는 등 방법을 알려주어 교묘하게 법망을 피해나간 것으로 자치경찰단은 확인했다.또, 이들은 중국국적의 가족단위 관광객들을 성산일출봉, 주상절리 등 제주도내 주요 관광지에 관광할 수 있는 여행일정을 안내해주고 1일 20만~30만원의 부당이득을 챙겼다고 설명했다. 임차한 자가용차량을 이용해 유상운송하는 불법도 저지른 것으로 파악했다.나승권 단장은 “제주관광의 질적 성장을 돕기 위해 인허가(신고) 절차 없이 탈법행위를 하는 비정상정인 영업행위는 도정책과 배치되는 덤핑관광 및 여행객의 안전을 담보하지 못하는 여행으로 이어져 건전한 관광질서를 무너뜨린다”며 “탈법행위자들에는 엄중한 처벌을 하고, 정상적인 여행업행위는 자치경찰에서도 적극 보호해 나갈 것”이라고 말했다.한편, 자치경찰단은 지난해 무등록여행업 등 관광진흥법위반 18건을 적발해 형사 입건한 바 있다. 올해의 경우 4월 현재까지 9건을 적발해 수사 중이다.무등록 여행업자에게는 관광진흥법(3년 이하의 징역 또는 3000만원 이하의 벌금)에 따른 조치가 이뤄진다. 자가용 또는 사업용 자동차로 관광객에게 돈을 받고 운송하는 행위도 여객자동차운수사업법(2년이하의 징역 또는 2000만원 이하의 벌금)에 따라 형사 처벌된다.제주도 자치경찰단(단장 나승권)은 중국인 관광객 등 외국인을 상대로 관광가이드 불법 영업을 한 일당 5명을 적발했다고 5일 밝혔다. 사진은 이들이 SNS를 통해 모객하는 내용. 사진=자치경찰단. 조문호 기자 jjdominilbo@gmail.com 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>'사드 여파' 작년 제주도 직영 관광지 첫 적자 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 '사드 여파' 작년 제주도 직영 관광지 첫 적자 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 '사드 여파' 작년 제주도 직영 관광지 첫 적자 기자명 이소진 기자 입력 2018.04.11 17:19 수정 2018.04.11 19:15 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 중국인 관광객. 자료사진.17곳 예년 20억 이상 흑자서 작년 -16억 전환성산일출봉은 절반 '뚝'…교래휴양림만 '북적' 지난해 3월부터 시작된 중국의 한한령(중국 내 한류 금지령·限韓令)의 여파로 제주특별자치도 직영 관광지가 지난해 첫 적자를 기록했다.이와 함께 대부분의 도 직영 관광지가 만성 적자 구조를 벗어나지 못하고 있어 대책 마련이 요구되고 있다.11일 도가 발표한 2017년 도 직영 관광지 17곳 이용현황(무료 관광지 포함)에 따르면, 16억원의 적자를 기록했다.이는 2016년 25억208만원, 2015년 47억6546만원, 2014년 53억5461만원, 2013년 23억1760만원, 2012년 22억9332만원 등 매년 흑자 기록하던 것과 비교해 큰 폭으로 떨어진 수치다.지난해 총 입장객은 595만9077명이며 관리운영비 91억486만원, 세외수입 75억484만원으로 각각 조사됐다.특히 사드 여파로 중국 등 외국인 입장객이 2016년 207만6803명에서 지난해 58만9798명으로 148만7005명(71.6%)나 급감했다.관광지별로 살펴보면, 비자림이 2016년 7억5620만원 흑자에서 지난해 7억4153만원 적자로 전환했으며, 성산일출봉의 경우 2016년 48억600만원에서 지난해 22억6350만원으로 수입이 반토막났다.또 무료관광지인 삼양동선사, 항몽유적지도 수억원 대의 적자폭이 수년째 이어지고 있다. 교래자연휴양림만 2016년 2억7180만원에서 지난해 3억2890만원으로 올랐을 뿐이다.이러한 영향으로 도내 공영 관광지 31곳의 총 수입은 2016년 98억6011만원에서 지난해 39억4971만원으로 59억1040만원(60.0%)이나 줄었다.이 밖에 제주시 직영 관광지 3곳은 지난해 3억5725만원의 적자를 봤으며, 서귀포시 직영 관광지 11곳은 지난해 59억1643만원의 흑자를 기록했다.도 관계자는 "지난해 사드 여파로 외국인 방문이 급감해 관광객 유치 이벤트로 한달동안 입장료를 받지 않기도 했다"며 "직영 관광지의 경우 문화시설 성격이 강한데다 공익 목적이 크기 때문에 경제 논리로 판단이 힘들다"고 밝혔다. 이소진 기자 lllrayoung@daum.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회 골프동호회, 4월 골프대회 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회 골프동호회, 4월 골프대회 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회 골프동호회, 4월 골프대회 개최 신동원 기자 headlinejeju@headlinejeju.co.kr 승인 2018.04.11 13:36 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회 골프동호회(회장 고규완)는 11일 우리들C.C에서 회원사 임직원 및 가족 등 동호회 회원 30여명이 참가한 가운데 4월 친선 골프대회를 개최했다.제주관광협회 관계자는 "앞으로도 지속적인 친선골프대회 개최를 통해 제주도내 골프장업계가 활성화될 수 있도록 적극적인 활동을 펼쳐나갈 계획"이라고 밝혔다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 신동원 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 선도학교 선정 학교관광교육 본격 운영 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 선도학교 선정 학교관광교육 본격 운영 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도관광협회, 선도학교 선정 학교관광교육 본격 운영 기자명 고병수 기자 입력 2018.04.14 17:30 수정 2018.04.14 17:55 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 동화, 더럭, 중문초등학교 3개교 선정...교육교재 집필·편집위 구성 책자(개정판)발간 추진 (제주=국제뉴스) 고병수 기자 = 제주특별자치도관광협회(회장 김영진)는 12일 제주특별자치도교육청 별관4층 제5회의실에서 학교관광교육 본격 운영을 위한 교육교재 집필·편집위원회 회의 및 워킹그룹과의 합동회의를 개최했다고 밝혔다.교육교재 집필·편집위원회 회의는 지난 3월22일 선도학교 선정 심사를 통해 동화, 더럭, 중문초등학교 등 3개교가 선정돼 위원회 구성을 완료하고 위원장도 선출했다.이번에 구성된 교육교재 집필·편집위원회는 도내 초등학생을 대상으로 관광산업에 대한 이해와 관광객 환대분위기 조성 등 쉽게 습득하도록 기존 발간됐던 ‘관광으로 배우는 제주’를 개정해 발간할 예정이다. 또한 4월중으로 기존교재의 내용을 수정하여 1차적으로 제작·배포하고, 9월에는 전면 보완, 수정을 통해 개정판을 발간하게 된다.관계자는 “도내 관광교육 관련 유관기관들이 참여하는 워킹그룹과 집필·편집위원회 합동회의에는 본격적인 도내 제주관광 봄 성수기가 도래됨에 따라 학교 100개교를 대상으로 관광객 환대교육을 전개할 예정”이라며 “교육에는 교육교재를 포함한 도민친절 및 I LOVE JEJU SONG 동영상을 활용해 교육을 진행하게 된다”고 말했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 학교관광교육 운영 '시동' - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 학교관광교육 운영 '시동' 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회, 학교관광교육 운영 '시동' 서한솔 기자 headlinejeju@headlinejeju.co.kr 승인 2018.04.12 14:28 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회(회장 김영진)는 학교관광교육을 본격적으로 운영하기 위해 12일 제주특별자치도교육청 제5회의실에서 교육교재 집필·편집위원회 회의 및 워킹그룹 합동회의를 개최했다.교육교재 집필·편집위원회 회의에서는 지난 달 22일 심사를 통해 관광선도학교로 선정된 동화·더럭·중문초등학교 3개교의 위원회를 구성하고 위원장을 선출했다. 또 제주도내 관광교육 관련 유관기관이 참가하는 워킹그룹 합동회의에서는 본격적인 제주관광 봄성수기를 맞아 학교 100개교를 대상으로 관광객 환대교육을 전개하기로 했다. 교육에는 제주도민친절 동영상, 아이러브제주송 동영상, 관광교육 교재 등이 활용될 예정이다.한편 교육교재 집필·편집위원회는 제주도내 초등학생들이 관광산업에 대해 쉽게 이해할 수 있도록 기존 발간됐던 '관광으로 배우는 제주'를 개정해 발간할 예정이다.개정 일정을 보면 이 달 중 기존교재의 내용을 수정해 1차적으로 제작·배포하고, 오는 9월 중 전면 보완 및 수정을 실시해 개정판을 발간할 계획이다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 서한솔 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 해외 관광객 유치 다변화 다각화 추진 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 해외 관광객 유치 다변화 다각화 추진 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, 해외 관광객 유치 다변화 다각화 추진 기자명 고병수 기자 입력 2018.04.01 16:52 수정 2018.04.01 21:15 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 베트남 VITM 박람회 참가 및 베트남 여성 박물관과 제주홍보 협의 (제주=국제뉴스) 고병수 기자 = 제주특별자치도는 지난 3월 29일부터 4월 1일까지 베트남 하노이 I.C.E.(Hanoi International Center for Exhibition)에서 개최된 VITM Hanoi 2018(Vietnam International Travel Mart Hanoi 2018)에 참가해 베트남 관광 업계와 현지 소비자 대상으로 제주의 관광 매력에 대한 홍보활동을 진행했다고 밝혔다.VITM Hanoi 2018은 하노이시 관광국, 베트남여행업협회 주최하고 베트남문화체육관광부, 하노이시인민위원회, 베트남관광협회 등이 후원했다.이번 박람회 참가는 제주특별자치도와 제주관광협회, 도내 8개 관광사업체(여행사 1, 호텔 1, 관광지업 4, 해양레저업 2)다.현학수 관광정책과장은 3월 29일 응웬티빅반(Nguyen Thi Bich Van) 베트남 여성 박물관장과의 면담을 통해 “베트남 여성들처럼 제주의 여성들도 해녀문화 등 제주도의 발전에 큰 역할을 담당하고 있다”고 강조했다. 또한 “베트남 여성 박물관을 통해 베트남인들과 여성 박물관을 찾는 외국 관광객들에게 제주를 알릴 수 있는 기회가 제공되기를 희망한다”고 밝혔다. 이에 응웬티빅반 베트남 여성 박물관장은 “베트남과 제주 간의 상호 교류가 활발하게 진행되기를 희망하면서 여성 박물관을 활용한 제주의 관광 문화를 알릴 수 있는 전시와 공연활동 등에 대하여 세부적인 논의를 해 나가는데 적극 협력할 것”을 약속했다.관계자는 “이번 박람회를 찾은 베트남 하노이 고객들이 제주를 비롯한 해외 관광에 많은 관심을 표명했고 경제성장과 더불어 미래 해외 관광수요가 지속적으로 증가될 것”이라 전망하며 “시장다변화를 주도할 주요 시장으로 지속적인 관광마케팅을 해나가겠다”고 했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 놀러 간 관광객들 눈물 흘리게 만든 돌무덤 옆 ‘짱구 흰둥이 인형’ - 인사이트 Insight 정치 경제 핫이슈 엔터 라이프 문화·스포츠 사람들 산업 헬스 증권·금융 13℃ 서울 11℃ 인천 12℃ 춘천 14℃ 강릉 13℃ 수원 13℃ 청주 14℃ 대전 15℃ 전주 16℃ 광주 15℃ 대구 15℃ 부산 15℃ 제주 제주도 놀러 간 관광객들 눈물 흘리게 만든 돌무덤 옆 '짱구 흰둥이 인형' 각종 과자와 인형이 놓인 제주도의 작은 돌무덤에 얽힌 사연이 보는 이의 눈시울을 자극하고 있다. 황효정 기자 2018-04-04 15:36:13 글자크기 설정 가 가 가 가 가 공유 카카오톡 페이스북 트위터 카카오스토리 밴드 핀터레스트 URL 복사 메일 Facebook 'TheBlueHouseKR'[인사이트] 황효정 기자 = 북촌리. 제주도의 작은 해변 마을이다. 이곳에 한 돌밭이 있다. 그 위로 작고 앙증맞은 인형이 있다. 귀엽기만 한 인형인데, 추억을 쌓으러 제주도에 놀러 왔던 관광객들은 눈물을 머금었다. 왜일까. 지난 3일 청와대는 공식 페이스북 페이지에 사진 몇 장을 게재했다. 풀숲 사이로 아무렇지도 않게 널려있는 작은 돌무더기를 포착한 사진이었다.Facebook 'TheBlueHouseKR'아름다운 제주 봄 풍경을 뒤로하고 포착된 돌무더기 위로는 인기 만화 '짱구는 못 말려'의 강아지 캐릭터 흰둥이 인형 등과 꽃, 과자, 장난감 등이 놓인 모습이다.검은 돌에 둘러싸인 이 작은 터는 정확히 70년 전 발생한 제주 4·3 사건의 역사 현장 중에서도 가장 마음 아픈 곳으로 불리는 '너븐숭이 애기무덤'이다. 너븐숭이는 제주말로 넓은 돌밭을 뜻한다. 이념 갈등이 발단이 된 무력충돌 과정에서 무고한 제주 주민들이 학살당한 사건인 제주 4·3 사건은 확인된 희생자 수만 1만 5천여 명, 유족들만 5만명이 넘는다. 이때 목숨을 잃은 사람은 비단 성인들뿐만이 아니었다. 무장단체의 사격으로 젖먹이를 안고 있던 여인들, 그 품에 안겨 있던 젖먹이들이 목숨을 잃었다.Facebook 'TheBlueHouseKR'사진 속 애기무덤은 당시 영문도 모른 채 무서워하며 죽어갔던 어린 생명들이 임시로 묻힌 돌밭인 것. 70년 전 희생당한 아이들이 있는 이곳에 70년 뒤 오늘날의 어른들이 다녀갔다. 심심하지 말라고 장난감과 과자를 놓고 갔다. 그 위로 4월의 햇살이 빛났다. 4월은 제주도에 있어 푸른 바다와 검은 돌담 사이에 노란 유채꽃이 피는 계절이다. 자신만의 꽃을 미처 피우기도 전 스러진 아기들을 더욱 기리고 또 기억해야 한다고, 흔하고 아름다운 제주의 봄날이 우리에게 말하고 있다. Facebook 'TheBlueHouseKR'황효정 기자 hyojung@insight.co.kr 황효정 기자 · webmaster@insight.co.kr 베스트클릭 국제 아들 출근한 사이 차 깨끗이 닦아주고 싶어 '철 수세미'로 세차한 70대 노모 자동차 “아내가 엑셀·브레이크 또 헷갈려서...” 아이오닉6 전국 ‘1호 사고차’가 등장했다 스타 대학 축제서 관객석 ‘다이빙’ 했는데 모두 피해 ‘맨땅 헤딩’한 유명 래퍼 (영상) 스포츠 오늘(9일) 손흥민이 입고 나온 티셔츠 본 콘테 감독...벤치에서 눈물 터져 연예 “군대 알아서 갈테니까”...국감서 BTS 슈가 자작곡 가사 등장했다 국제 “중국인은 2명이 모이면 벌레가 된다” 발언한 일본 예술가 민족 비하 논란 스타 이게 현실에서 가능한 여자 몸매?...반응 터진 몸짱 인플루언서 실제사진 사회 BTS 병역특례 두고 공방...더민주 “국가적 손실” vs 국힘당 “나훈아도 갔다왔다” 국제 “앗 뜨거!” 손목에 차고 있던 애플워치 ‘펑’ 폭발...애플, 누설 말라 강요 스포츠 ‘피겨 프린스’ 차준환, 드디어 세계 정상 우뚝 섰다...“20점차 이상 압도적 스코어” 국제 노출의상 입은 댄서들 공연 후 요양원서 벌어진 충격 상황...“할머니 한 명은 심장마비로 쓰러져” 방송·드라마 엄지원에 살해당했던 추자현, 살아있었다...‘작은 아씨들’ 충격 엔딩 사회 확 달라진 군 교육자료...文 정부가 삭제한 ‘문구’, 다시 추가됐습니다 문화·예술 22년 동안 ‘평일’이었던 한글날, 역시 ‘이 대통령’ 때 빨간날 됐다 사회 2500만원이면 가는 인도 출장, 김정숙 여사 때문에 국민혈세 ‘3억’ 더 썼다 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 서울특별시 강남구 논현로99길 23, 인사이트빌딩 (주)인사이트컴퍼니 | 사업자번호: 119-86-62226 | 02-6734-2207 | 등록번호: 서울 아 02953 | 등록일자: 2014.01.02 | 발행・편집인: 안길수 | 편집국장: 이유리 인사이트의 모든 콘텐츠(기사·사진)는 저작권법의 보호를 받은 바, 무단 전재, 복사, 배포 등을 금합니다. 이를 어길 시 법적 제재를 받을 수 있습니다. Copyright ⓒ 인사이트, Ltd. All Rights Reserved. Insight 정치 정치일반 사회 청와대 국회·정당 전국 경제 생활경제 소비자 정책 외환 부동산 핫이슈 이슈 과학 국제 환경 사건사고 스토리 동물 엔터 연예 방송·드라마 영화 비디오 스타 라이프 라이프 패션 여행 음식·맛집 쇼핑 연애 건강 문화·스포츠 문화·예술 코믹 책·서평 스포츠 공연·전시 게임 사람들 사람들 인사 동정 부음 산업 기업 CEO IT·전자 자동차 모바일·통신 항공·물류 중기·벤처 헬스 제약 의료 뷰티 증권·금융 증시 금융 보험·카드 베스트클릭 아들 출근한 사이 차 깨끗이 닦아주고 싶어 '철 수세미'로 세차한 70대 노모 “아내가 엑셀·브레이크 또 헷갈려서...” 아이오닉6 전국 ‘1호 사고차’가 등장했다 대학 축제서 관객석 ‘다이빙’ 했는데 모두 피해 ‘맨땅 헤딩’한 유명 래퍼 (영상) 오늘(9일) 손흥민이 입고 나온 티셔츠 본 콘테 감독...벤치에서 눈물 터져 “군대 알아서 갈테니까”...국감서 BTS 슈가 자작곡 가사 등장했다 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 Copyright ⓒ 인사이트, Ltd. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>'제주 4.3 사건' 이효리, 영화 지슬 언급하며 "제주도, 관광지 아닌 아픔 있는 땅" &lt; 종합 &lt; 연예 &lt; 기사본문 - 중부일보 - 경기·인천의 든든한 친구 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 경기·인천 뉴스의 중심 로그인 회원가입 2022-10-11 09:06 (화) 지면서비스 전체메뉴 버튼 경기 가평군 고양시 과천시 광명시 광주시 구리시 군포시 김포시 남양주시 동두천시 부천시 성남시 수원시 시흥시 안산시 안성시 안양시 양주시 양평군 여주시 연천군 오산시 용인시 의왕시 의정부시 이천시 파주시 평택시 포천시 하남시 화성시 지역종합 자치의정 북부종합 인천 정치 의정 경제 사회 선거 계양구 미추홀구 남동구 동구 부평구 서구 연수구 중구 강화군 옹진군 인천종합 사람들 사람들 인사 알림 부고 새얼굴 정치 지방행정 지방의정 선거 대통령실 행정·자치 국회·정당 외교·국방·북한 정치일반 20대 대선 경제 경제종합 건설.부동산 금융.재태크.증권 소비자.유통 일자리&amp;창업 IT.과학 자동차 중소기업 사회 사건.사고 교육 법원·검찰·경찰 노동·복지 생활·환경 날씨정보 사회종합 문화 문화종합 공연.전시 신간 스포츠 야구 축구 농구 배구 골프 종목별경기 스포츠일반 6·1 지방선거 경기도 인천 포토 포토뉴스 만평 꼬투리 그래픽뉴스 테마화보 카드뉴스 다문화뉴스 English(영어) 中国语(Chinese) Tiếng Việt(Vietnamese) Other Languages 다문화人Story 기획취재 라이프 레저·여행 푸드스토리 건강·의학 오피니언 눈여겨 볼만한 개발정보 TV중부 경기도맛집 연중기획 '지방분권' 시대 끝까지 간다 팩트인사이드 지방선거 누가 뛰나 지면보기 모바일보기 뉴스종합 정치 경제 사회 문화 스포츠 국제 지역 경기 사람들 인천 오피니언 라이프 기획취재 포토 검색하기 기사검색 검색 Trend news 1 오산시의회, 제272회 제1차 정례회 개회 2 1기 신도시 연합회 "안전진단 면제·임기내 착공 약속하라" 3 제1회 중부일보 사장배 유소년 축구대회 4 검찰, 이재명 관련 의혹 전방위 수사…소환 조사 임박했나 5 [국감인물] 국민의힘 국토교통위 김선교 의원 "이재명·은수미 배임행위" 저격 6 [현장 24시] "일조·조망권 침해" VS "적법한 재산권 행사"…북수원패션아울렛 재건축 갈등 7 "8호선 의정부연장 조속히 해야"…김민철, 국정감사서 교통인프라 개선 촉구 8 [중부일보 사장배 유소년축구대회] 6학년 리그 우승 김지원 인천유나이티드 미추홀지부 감독 "아이들이 축구에 대한 흥미 잃지 않도록 노력" 9 공사비 오르는데 미분양 급증…경기도 건설업계 '죽을 맛' 10 '블랙, 세상의 빛을 담다'…의정부 BMF 21~22일 시청 앞 광장서 개최 ISSUE PICK 지역개발 우리동네 집값·땅값은 TV중부 뉴스를 본다 교육이 미래다 교육의 현장속으로 팩트인사이드 오직 사실! 다문화뉴스 우리 곁에 연예 방송 음악 영화 종합 JTBC방송 더보기 본문영역 서울 12℃  맑음 미세먼지 경기 14℃  맑음 미세먼지 인천 14℃  맑음 미세먼지 이전 기사보기 다음 기사보기 '제주 4.3 사건' 이효리, 영화 지슬 언급하며 "제주도, 관광지 아닌 아픔 있는 땅" 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 연예 종합 '제주 4.3 사건' 이효리, 영화 지슬 언급하며 "제주도, 관광지 아닌 아픔 있는 땅" 기자명 정영식 입력 2018.04.03 17:10 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 네이버밴드(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 네이버밴드(으)로 기사보내기 닫기 ▲ 사진=JTBC '효리네 민박' 캡처 가수 이효리가 제주 4.3 사건 추념식에 참석한 가운데 이 사건을 다룬 영화 ‘지슬’을 언급해 주목을 받고 있다.앞서 JTBC '효리네 민박'에 출연한 이효리는 제주 4.3 사건을 다룬 영화 '지슬 - 끝나지 않은 세월2'를 민박객들에게 추천하며 "안 죽으려고 막 동굴에 숨어 살면서 감자를 많이 먹었다더라. 그래서 영화 제목이 '지슬'이다. '지슬'이 '감자'의 제주 방언이다"라고 언급했다.그러면서 이효리는 "제주도를 관광지로만 생각하는 경향이 있긴 하다"라며 "아픔이 있는 땅"이라 표현했다. 제주 4.3 사건은 1948년 4월 3일에 발생한 소요사태 및 1954년 9월 21일까지 제주도에서 발생한 무력충돌과 진압 과정에서 주민들이 희생당한 사건이다. 이효리는 3일 오전 제주시 봉개동 4-3평화공원에서 열린 제70주년 4.3 사건 희생자 추념식에 참석, 추념사를 읽으며 희생자들에 대한 위로를 건넸다.정영식 기자 페이스북 지면신문보기 저작권자 © 중부일보 - 경기·인천의 든든한 친구 무단전재 및 재배포 금지 로그인하면 내지역 뉴스와 원본 지면을 보실 수 있습니다. 회원가입 로그인 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 많이 본 기사 1 오산시의회, 제272회 제1차 정례회 개회 2 1기 신도시 연합회 "안전진단 면제·임기내 착공 약속하라" 3 제1회 중부일보 사장배 유소년 축구대회 4 검찰, 이재명 관련 의혹 전방위 수사…소환 조사 임박했나 5 [국감인물] 국민의힘 국토교통위 김선교 의원 "이재명·은수미 배임행위" 저격 PREMIUM로컬프리미엄 고양시 인천동구의회 인천동구 과천시 광명시 안양시 파주시 화성시 안성시 양평군 오산시 의정부시 여주시 안산시 이천시 의왕시 군포시 평택시 구리시 용인시 광주시 눈여겨 볼만한 개발정보 GTX-B ‘인천대~마석’ 민자구간, 2024년 착공 인천시, 재개발사업 희망지 공모…10개소 이내 구역지정 인천 2호선 김포 감정동·걸포북변·시네폴리스 3개역 신설 검토 오늘의 헤드라인 고양 탄현동·인천 부평구 등 전세보증사고 속출 올해 들어 고양 탄현동·인천 부평구·서울 화곡동 등지에서 집주인이 세입자의 전세보증금을 돌려주지 못한 전세 보증 사고가 집중됐던 것으로 나타났다.특히 고양 탄현에서 발생한 전세 보... GTX-B ‘인천대~마석’ 민자구간, 2024년 착공 "실효성 없는 학생 자가진단 앱 언제까지 해야 하나" 불만 폭증 부담스런 점심시간…김밥 1줄 3천원 시대 로컬 인사이드 경기도 유물여행 한겹 한겹 덧칠 걷어내니 호성공신의 위엄이 돌아왔다 우리동네 책방여행 시 창작회·음악회 함께 즐기며 '생태주의 공유'…용인 '반달서림' 인문기행-경기도의 전통사찰 꺽정불 찾아 수능 대박 기원해볼까…안성 칠장사 하단영역 경기·인천의 든든한 친구 뉴스 지역종합 오피니언 라이프 기획취재 포토 TV중부 매체정보 경기도 수원시 팔달구 권선로 733 (인계동) 중부일보 문의전화 : 031-230-2114 팩스 : 031-233-3010~1 인천본사 : 인천광역시 남동구 구월남로 148 타워플러스 603호 TEL : 032) 437-0081 FAX : 032) 437-0085 중부일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 중부일보 - 경기·인천의 든든한 친구. All rights reserved. mail to webmaster@joongboo.com 위로 전체메뉴 경기 가평군 고양시 과천시 광명시 광주시 구리시 군포시 김포시 남양주시 동두천시 부천시 성남시 수원시 시흥시 안산시 안성시 안양시 양주시 양평군 여주시 연천군 오산시 용인시 의왕시 의정부시 이천시 파주시 평택시 포천시 하남시 화성시 지역종합 자치의정 북부종합 인천 정치 의정 경제 사회 선거 계양구 미추홀구 남동구 동구 부평구 서구 연수구 중구 강화군 옹진군 인천종합 사람들 사람들 인사 알림 부고 새얼굴 정치 지방행정 지방의정 선거 대통령실 행정·자치 국회·정당 외교·국방·북한 정치일반 20대 대선 경제 경제종합 건설.부동산 금융.재태크.증권 소비자.유통 일자리&amp;창업 IT.과학 자동차 중소기업 사회 사건.사고 교육 법원·검찰·경찰 노동·복지 생활·환경 날씨정보 사회종합 문화 문화종합 공연.전시 신간 오늘의운세 별자리운세 스포츠 야구 축구 농구 배구 골프 종목별경기 스포츠일반 6·1 지방선거 경기도 인천 포토 포토뉴스 만평 꼬투리 그래픽뉴스 테마화보 카드뉴스 다문화뉴스 English(영어) 中国语(Chinese) Tiếng Việt(Vietnamese) Other Languages 다문화人Story 기획취재 라이프 레저·여행 푸드스토리 건강·의학 오피니언 눈여겨 볼만한 개발정보 TV중부 경기도맛집 연중기획 '지방분권' 시대 끝까지 간다 팩트인사이드 지방선거 누가 뛰나 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 서울 '내 고향 페스티벌'서 제주관광 홍보 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 서울 '내 고향 페스티벌'서 제주관광 홍보 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회, 서울 '내 고향 페스티벌'서 제주관광 홍보 서한솔 기자 headlinejeju@headlinejeju.co.kr 승인 2018.04.06 13:07 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회는 제주도, 제주시와 함께 6일부터 오는 8일까지 '케이-페스티벌 2018 파이팅 코리아 내 고향 페스티벌'과 '힐링페어 2018'에 참가해 제주관광 홍보관을 운영한다고 밝혔다.'케이-페스티벌 2019 화이팅 코리아 내 고향 페스티벌'과 '힐링페어 2018'은 각각 서울 여의도와 서울 양재 aT센터에서 개최된다.제주도관광협회는 내고향 페스티벌에서 제주국제관광마라톤축제, 제주 레저스포츠 대축제, 탐라문화제, 제주들불축제 등 제주도내 다양한 축제를, 힐링페어에서는 제주글램핑 등 도내 웰니스관광 업체들과 함께 제주의 힐링테마 관광자원을 적극 홍보할 방침이다.앞으로 제주도와 제주도관광협회는 앞으로도 제33회 한국국제관광전 등 대형 관광박람회에 참가해 국내외 개별관광객 유치 확대를 위한 홍보마케팅을 전개할 예정이다.한편 힐링페어에서 사단법인 힐링산업협회는 힐링산업의 발전에 기여한 업적을 기려 김영진 관광협회장에게 공로상을 수여했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 서한솔 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 서귀포에서 즐기는 소확행! 중문 관광과 흑돼지 맛집 등 알찬여행 코스 &lt; 사회 &lt; 뉴스 &lt; 기사본문 - 부산제일경제 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집:2022-10-11 12:40 (화) 로그인 회원가입 모바일웹 PDF 보기 전체메뉴 버튼 뉴스 경제 산업 정치 사회 기업일반 유통 기업탐방 릴레이인터뷰 건강/의료 연예 스포츠 인사 라이프 자동생성기사 금융/증권 금융동향 머니플러스 증권일반 종목/투자전략 빅데이터 인포스탁데일리 부동산 정책 분양/건설 해양수산 일반 수산물 항만 해운 교육 교육일반 초/중/고/학원 대학 문화 문화일반 전시/공연 마을활동가 기획/연재 칼럼/기고 HOT 스타트업 연재 취재수첩 디지털이야기 사람을 만나다 Zoom in ASEAN 미래경영포럼 해외기획취재 社告/축사 파워피플100 스타기업100 전체기사 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 서귀포에서 즐기는 소확행! 중문 관광과 흑돼지 맛집 등 알찬여행 코스 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 뉴스 사회 제주도 서귀포에서 즐기는 소확행! 중문 관광과 흑돼지 맛집 등 알찬여행 코스 기자명 이수호 기자 승인 2018.04.05 17:28 댓글 0 조회수 : 4626 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 시원하게 내리는 봄비로 인해 봄철 불청객 미세먼지와 황사로부터 조금은 자유로운 요즘, 봄비처럼 반가운 소식인 봄꽃 축제의 시기가 다가왔다. 서울 여의도는 이번주 7일부터 ‘윤중로 벛꽃축제’를 시작하고 10일까지 열리는 ‘진해 군항제’와 13일부터 3일간 열리는 ‘제천 청풍호 벚꽃축제’, 7일부터 이틀간 열리는 경남 하동군의 ‘화개장터 벚꽃축제’ 등 각 지역마다 저마다의 벚꽃 축제를 준비 중이다. 이렇게 우리나라 구석구석 예쁜 꽃들과 아름다운 자연경관으로 가볼만한 곳이 많지만 벚꽃과 유채꽃, 우리나라에서 가장 높은 한라산과 푸른 바다까지, 제주도와 같이 자연종합선물세트를 선사는 곳도 없을 것이다. 특히 제주도 서남쪽에 위치한 ‘중문’은 세계적으로 인정받는 제주도의 대표적인 관광위락단지로 제주의 푸른 바다와 희고 고운 모래의 조화가 인상적인 ‘색달 해수욕장’, 3단으로 쏟아져 내려오는 ‘천제연 폭포’의 장관, ‘지삿개 주상절리’의 해안절벽 절경까지 어느 것 하나 놓칠 수 없는 다채로운 여행코스로 알찬 여행을 완성케 한다, 이렇게 자연이 주는 선물 외에 제주도에 왔으니 흑돼지 맛집에서 즐기는 식사 한 끼도 빠질 수 없다.서귀포 중문 복분자 흑돼지 맛집으로 소문이 자자한 ‘돈가득’은 제주도산 두툼한 흑돼지를 참숯으로 굽는데, 굽기 직전 복분자를 뿌려주어 잡내는 없애고 훈연의 향은 더했다. 주인장이 직접 제주도산 청정재료로 만드는 정갈한 반찬과 든든한 흑돼지 근고기 한 상은 깔끔한 맛과 푸짐함, 합리적인 가격 등 여러 면에서 제주도 여행의 ‘맛있는 추억’으로 남기기에 부족함이 없다.흑돼지가 들어간 소시지와 얼큰한 국물 맛이 일품인 된장찌개 등 사이드 메뉴 외에 오겹살과 대패삼겹살, 소등갈비살 등 다른 부위의 고기 또한 다양하게 준비되어 있다. 점심 특선으로는 전복이 들어간 ‘흑돼지불고기전골’을 맛볼 수 있으며, 남녀노소 불문 가족과 단체 등 주차가 용이하여 부담 없이 방문 가능하다. 이수호 기자 goodnights1@busaneconomy.com 이수호 기자 goodnights1@busaneconomy.com 다른기사 보기 저작권자 © 부산제일경제 무단전재 및 재배포 금지 당신만 안 본 뉴스 [2022 부산 월드뷰티 EXPO] 부산 벡스코서 화려한 개막… 참여는 '저조' [2022 부산 월드뷰티 EXPO] MZ세대가 이끄는 '뷰티산업의 메카 부산' 부활의 신호탄 알려 CNC머신 국내 1위 디엔솔루션즈, 부산대와 산학협력 부울경 첫 민간 액셀러레이팅 프로그램 ‘시리즈스트롱’ 모집 8월 부산 산업 생산, 전년比 19.7% 증가 롯데팬 두 번 울리는 ‘조선의 4번 타자 이대호 은퇴식’ 입장권 암표거래 “사교육비 없애자… 금융인재 양성해 부산을 국제금융도시로” [2022 부산 월드뷰티 EXPO] 부산 벡스코서 화려한 개막… 참여는 '저조' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 엑스포추진본부·금융창업정책관 신설… 부산, 새 시정 기틀 마련 부산 기업 대다수 오픈이노베이션 도입 관심 없어 부산시의회 출범 100일…‘일 잘하는 의회’로 기업이 늙고 있다…업력 높을수록 대표자 나이도 많아 부산원아시아페스티벌 케이팝 콘서트 최종 출연진 공개 롯데팬 두 번 울리는 ‘조선의 4번 타자 이대호 은퇴식’ 입장권 암표거래 인기뉴스 1 캠코신조펀드 3호 동아탱커 ‘DAT머큐리’호 명명식 2 캠코, 1668억원 규모 압류재산 공매…부산41건 포함 3 BIFF와 연계된 ACFM, 3년만에 대면 개최… 콘텐츠 국제거래 큰 장 역할 4 부경대생들, 스포츠관광 대학생 아이디어 ‘우수상’ 5 "제2센텀 산단 등 14조6700억 투자" 6 부산관광공사-서울관광재단 상호협력 MOU 체결 7 “건전한 한국자본시장 위해 불공정거래 제재수단 강화 필요” 8 예탁결제원 “휴면 주식 및 배당금의 주인을 찾습니다” 포토뉴스 불법자동차·이륜차 근절…부산시, 집중 단속 실시 2022 청년작당소 아트시네마전 오는 25일까지 개최 ‘나혼산’ 차서원, 미담장학회 통해 교육 멘토 활동 해와 관광객도 ‘동백전’으로…관광객 전용 동백전 출시 최신뉴스 불법자동차·이륜차 근절…부산시, 집중 단속 실시 2022 청년작당소 아트시네마전 오는 25일까지 개최 ‘나혼산’ 차서원, 미담장학회 통해 교육 멘토 활동 해와 관광객도 ‘동백전’으로…관광객 전용 동백전 출시 부산 마이스 산업 활성화 유공자 표창 신청 받아 하단영역 하단메뉴 회사소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리 매체정보 부산광역시 수영구 광남로 42, 국보빌딩 11층 대표전화 : 051-996-2400 팩스 : 051-996-2408 청소년보호책임자 : 이태희 법인명 : 부산제일경제 제호 : 부산제일경제 등록번호 : 부산 아 00219 등록일 : 2015-02-06 발행일 : 2015-02-06 발행·편집인 : 이태희 Copyright © 2022 부산제일경제. All rights reserved. mail to agency@busaneconomy.com 위로 전체메뉴 전체기사 카드뉴스 전체 이야기 오늘 통계로 본 부산 뉴스 전체 경제 산업 정치 사회 기업일반 유통 기업탐방 릴레이인터뷰 건강/의료 연예 스포츠 인사 라이프 자동생성기사 금융/증권 전체 금융동향 머니플러스 증권일반 종목/투자전략 빅데이터 인포스탁데일리 부동산 전체 정책 분양/건설 해양수산 전체 일반 수산물 항만 해운 교육 전체 교육일반 초/중/고/학원 대학 문화 전체 문화일반 전시/공연 마을활동가 기획/연재 전체 칼럼/기고 HOT 스타트업 연재 취재수첩 디지털이야기 사람을 만나다 Zoom in ASEAN 미래경영포럼 해외기획취재 社告/축사 중국뉴스 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 일본 관광객 유치 마케팅 ‘총력’ &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 일본 관광객 유치 마케팅 ‘총력’ 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도관광협회, 일본 관광객 유치 마케팅 ‘총력’ 기자명 고병수 기자 입력 2018.04.02 00:27 수정 2018.04.02 01:05 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수 기자 = 제주특별자치도와 道관광협회(회장 김영진)는 3월 25일부터 29일까지 도내 일본 인바운드 전문 여행업체와 공동으로 일본 동경 및 오사카 지역 여행업계 방문 비즈니스 세일즈 마케팅을 전개했다고 1일 밝혔다.이번 일본 세일즈 마케팅은 제주 입도 관광객이 증가세로 전환되고 제주-일본간 접근성 개선에 따른 수요 창출의 극대화를 위해 제주 4․3 70주년을 연계한 기획상품 개발요청을 주력으로 한 상품 구성 협의가 진행됐다. 특히 현지 에이전트사 초청 제주관광 상품 활성화 간담회에서 제주 신규호텔과 제주지역 회원제 골프장에 적용되던 개별 소비세 감면 등의 정보교환, 인센티브 투어 및 트레킹 등 체험상품 구성을 적극 요청하기도 했다. 관계자는 "2018 제주 방문의 해를 맞아 도내업계의 세일즈 지원을 강화해 재외도민의 고향방문을 유도하는 등 일본 관광시장의 성장세를 유지하도록 최선을 다할 것"이라고 했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 베트남서 제주관광상품 세일즈 추진 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 베트남서 제주관광상품 세일즈 추진 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회, 베트남서 제주관광상품 세일즈 추진 서한솔 기자 headlinejeju@headlinejeju.co.kr 승인 2018.04.01 13:29 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주도관광협회(회장 김영진) 지난 3월 29일부터 4월 1일까지 베트남 하노이 I.C.E에서 개최된 베트남국제관광마켓 VITM 2018에 참가해 해외시장 비즈니스 세일즈를 추진했다.VITM은 평균 약 6만5000여명의 관람객이 방문하는 베트남 지역 최대규모 관광전문 박람회로, 올해는 25개국 500개부스의 규모로 개최됐다.제주관광협회는 제주도내 관광사업체 8곳과 함께 이번 박람회에 참가해 미용과 연계한 상품 및 하반기 인센티브 단체 일정, 직항 전세기, 패키지 상품구성 등 세일즈를 진행했다.더불어 소비자를 대상으로 '4.3 70주년 제주방문의 해'를 홍보하고 축제, 마라톤 등 레저·스포츠와 제주시티투어버스 등 대중교통을 활용한 세일즈 마케팅을 추진했다특히  관광협회는 베트남 부유층을 대상으로 한 골프 등 고부가가치 제주상품을 기획하기 위해 베트남 골프협회 및 골프 매거진과 함께 공동 상품을 기획하기로 했다.한편 이 날 참가업체들은 총 70여건의 상품개발 협의와 함께 17건의 계약 진행을 위한 구체적인 상담을 실시하는 등 성과를 이뤄냈다.관광협회 관계자는 "도내업계의 해외시장 확대를 위한 마케팅 역량 및 경쟁력을 강화하기 위해 지속적인 비즈니스 세일즈 확대 등 홍보 마케팅을 추진 하겠다"고 전했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 서한솔 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도·관광협회, 박람회서 제주관광 홍보관 운영 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:45 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도·관광협회, 박람회서 제주관광 홍보관 운영 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 제주도·관광협회, 박람회서 제주관광 홍보관 운영 문유미 기자 승인 2018.04.08 17:12 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [제주일보=문유미 기자] 제주특별자치도와 제주시, 제주특별자치도관광협회는 지난 6일부터 8일까지 서울 여의도와 양재 aT센터에서 각각 개최된 ‘K-Festival 2018 파이팅 코리아 내 고향 페스티벌’과 ‘힐링페어 2018’에서 제주 관광 홍보관을 운영하며 관광객 유치에 열을 올렸다.‘K-Festival 2018 파이팅 코리아 내 고향 페스티벌’에서는 제23회 제주국제관광마라톤축제, 제주 레저스포츠 대축제, 탐라문화제 등 도내 다양한 축제를 홍보하며 축제 관광객 유치에 주력했다.‘힐링페어 2018’에서는 제주글램핑 등 도내 웰니스 관광 업체들이 함께 참여해 제주의 힐링테마 관광자원을 적극적으로 홍보했다.제주도와 제주관광협회는 앞으로 열리는 제33회 한국국제관광전 등 대형 관광박람회에도 참가해 국내외 개별관광객 유치 확대를 위한 지속적인 홍보마케팅을 전개할 예정이라고 밝혔다. 문유미 기자  moon@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 문유미 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>스타벅스, 제주도 환경·관광자원 보호 기금 조성 &lt; 산업 &lt; 기사본문 - 굿모닝경제 - 경제인의 나라, 경제인의 아침! 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 : 2022-10-11 11:15 (화) For translation 전체기사 로그인 회원가입 post youtube facebook 경제인의 나라, 경제인의 아침 전체메뉴 버튼 정치·정책 정책 국회 대통령실 정부부처 지방자치 경제금융 금융당국 은행 보험 제2금융 일반경제 증권 증권 자산운용 자본시장 블록체인 산업 재계 전자 자동차 정유 중공업 철강 정보통신과학 정보통신 방송·뉴미디어 게임 모빌리티 4차산업 생활경제 식품 유통 제약·바이오 병원 뷰티 패션 호텔 건설부동산·공기업 건설 분양 시황 교통 공기업 사회·문화 법원·검찰·경찰 사회일반 생활문화 연예·스포츠 오늘의날씨 건강 카드뉴스 오피니언 사설 데스크칼럼 칼럼 기자수첩 세미나·포럼 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 스타벅스, 제주도 환경·관광자원 보호 기금 조성 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 산업 스타벅스, 제주도 환경·관광자원 보호 기금 조성 기자명 김소희 기자 입력 2018.04.18 15:26 수정 2018.04.18 15:42 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주 카페 아메리카노와 라떼 출시하고 이를 통해 5000만원 확보 계획 스타벅스가 제주의 식물 자원을 소개하는 가이드북 제작을 위해 제주도 관련 상품을 출시하고 이를 통해 조성된 기금 5000만원을 전달하겠다는 계획이다. &lt;스타벅스코리아 제공&gt; [한국정책신문=김소희 기자] 스타벅스커피 코리아는 제주 카페 아메리카노와 제주 카페 라떼를 출시하고 제주 특화 음료 출시 2주년을 기념해 제주의 환경과 관광자원 보호를 위한 기금 5000만원을 조성하겠다고 18일 밝혔다. 스타벅스는 조성된 기금을 제주올레에 전달해 제주의 식물 자원을 소개하는 가이드북 제작을 지원한다. 스타벅스와 제주올레는 제주의 생태환경 보호를 위해 제주올레 길을 걸으며 제주의 식물을 만날 수 있도록 제주올레 식물 가이드북을 제작해 배포하는 방안을 협의할 예정이다. 제주 카페 아메리카노와 제주 카페 라떼는 케냐 원두를 사용해 만든 커피로 제주도 한정음료다. 제주 카페 아메리카노는 상쾌함이 느껴지는 첫 맛과 부드럽고 고소한 끝 맛이 특징이며, 제주 카페 라떼는 제주 감귤 풍미로 상쾌하고 산뜻한 맛을 선사한다. 박현숙 카테고리 총괄은 "제주도의 자연환경과 특산물에서 영감을 얻은 스타벅스의 다양한 제품과 상품이 고객 여러분들의 사랑을 받고 있다"며 "향후에도 한국적, 지역적 특색을 살린 제품을 고객에게 선보이고 우리 지역사회와 동반 성장할 수 있도록 최선을 다할 예정"이라고 전했다. 트윗하기 키워드 #스타벅스 #제주도 #기금지원 #가이드북 김소희 기자 kimsohee333@goodkyung.com 다른기사 보기 저작권자 © 굿모닝경제 - 경제인의 나라, 경제인의 아침! 무단전재 및 재배포 금지 당신만 안 본 뉴스 증시 침체기 중소 증권사, 스택 상장 통해 활로 열기 [굿모닝! 오늘의 날씨] 강한 바람에 체감온도 '뚝'...아침 기온 대부분 10도↓ 선우은숙, 아나운서 유영재와 재혼 "최근 혼인신고" 한화디펜스, 미 AUSA 방산전시회서 첨단 무기체계 전시 하반기 전망 엇갈리는 삼성·한화생명...한화 저축보험으로 만회 노리나 현대모비스, 룩소프트와 차세대 IVI 플랫폼 공동개발 [기자수첩] 박수칠 때 떠나는 '아름다운' 기관장의 모습 증시 침체기 중소 증권사, 스택 상장 통해 활로 열기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 與 “민주, 종부세 공정시장가액비율 70% 상향하자” '트윈데믹' 우려 확산...정부, 감기약 생산증대 지원방안 무기한 연장 [굿모닝!이 만난사람] 최상기 인제군수 “모든 행정력 집중해 1000만 관광 거점 조성” 하반기 전망 엇갈리는 삼성·한화생명...한화 저축보험으로 만회 노리나 현대모비스, 룩소프트와 차세대 IVI 플랫폼 공동개발 삼성전자, 타이젠OS 생태계 확장...첫 타사 TV 채택 최신뉴스 뉴스캐스트, 마케팅 풀패키지 서비스 실시 오뚜기, '맥앤치즈볼' 출시...'체다치즈 풍미 가득' LG전자, AI엔진 탑재한 휘센 상업용 시스템에어컨 출시 콘진원, 유럽서 K-콘텐츠 수출 앞장…‘K-콘텐츠 엑스포 in 스페인’ 성료 우유자조금관리위원회, K-MILK 팝업스토어 밀키맨션 성료 인기뉴스 1 증시 침체기 중소 증권사, 스택 상장 통해 활로 열기 2 [굿모닝! 오늘의 날씨] 강한 바람에 체감온도 '뚝'...아침 기온 대부분 10도↓ 3 선우은숙, 아나운서 유영재와 재혼 "최근 혼인신고" 4 한화디펜스, 미 AUSA 방산전시회서 첨단 무기체계 전시 5 하반기 전망 엇갈리는 삼성·한화생명...한화 저축보험으로 만회 노리나 6 현대모비스, 룩소프트와 차세대 IVI 플랫폼 공동개발 7 [기자수첩] 박수칠 때 떠나는 '아름다운' 기관장의 모습 8 LG 의인상에 이천화재 현장서 끝까지 환자지킨 고 현은경 간호사 하단메뉴 신문사소개 사업소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리인 매체정보 서울특별시 중구 삼일대로6길 5 조양빌딩(신관) 11층 대표전화 : 02-726-7493 팩스 : 02-777-6473 등록번호 : 서울 아03448 등록·발행일자 : 2014-11-24 대표이사·발행인 : 오운암 편집인 : 원충희 편집국장 : 이근형 청소년보호·개인정보관리 책임자 : 정성환 굿모닝경제 모든 콘텐츠(기사)는 저작권법의 보호를 받는 바, 무단전재, 복사, 배포 등을 금합니다. © 굿모닝경제 - 경제인의 나라, 경제인의 아침!. All rights reserved. 위로 전체메뉴 전체기사 정치·정책 전체 정책 국회 대통령실 정부부처 지방자치 여론조사 국제 경제금융 전체 금융당국 은행 보험 제2금융 일반경제 증권 전체 증권 자산운용 자본시장 블록체인 산업 전체 재계 전자 자동차 정유 중공업 철강 정보통신과학 전체 정보통신 방송·뉴미디어 게임 모빌리티 4차산업 생활경제 전체 식품 유통 제약·바이오 병원 뷰티 패션 호텔 건설부동산·공기업 전체 건설 분양 시황 교통 공기업 사회·문화 전체 법원·검찰·경찰 사회일반 생활문화 연예·스포츠 오늘의날씨 건강 카드뉴스 오피니언 전체 사설 데스크칼럼 칼럼 기자수첩 세미나·포럼 인사·부고·동정 포토 전체 연예포토 스타화보 스포츠포토 일반포토 동영상 전체메뉴닫기</t>
   </si>
 </sst>
 </file>
@@ -434,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,7 +573,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -467,7 +584,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -478,7 +595,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -489,7 +606,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -500,7 +617,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -511,7 +628,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -522,7 +639,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -533,7 +650,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -544,7 +661,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -553,6 +670,223 @@
       </c>
       <c r="B11" t="s">
         <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
